--- a/mo/lab_7/Abakirov_MO_LabWork#7(Ver-4)_ПИ-1-15_2017.09.03.xlsx
+++ b/mo/lab_7/Abakirov_MO_LabWork#7(Ver-4)_ПИ-1-15_2017.09.03.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kstu\se_3\mo\lab_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/kstu/dev/mo/lab_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C88A7ED-E71A-5145-8869-22D3FB0FB250}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -18,18 +19,18 @@
     <sheet name="sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="179021" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ten</author>
     <author>ten_IG</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1" shapeId="0">
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1" shapeId="0">
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -194,14 +195,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ten_IG</author>
     <author>tenig</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C88" authorId="1" shapeId="0">
+    <comment ref="C88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="2" shapeId="0">
+    <comment ref="D88" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -284,12 +285,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ten_IG</author>
   </authors>
   <commentList>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -357,13 +358,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tenig</author>
     <author>Иосиф</author>
   </authors>
   <commentList>
-    <comment ref="H25" authorId="0" shapeId="0">
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -389,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0" shapeId="0">
+    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H76" authorId="1" shapeId="0">
+    <comment ref="H76" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1271,7 +1272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
@@ -1397,12 +1398,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
       <sz val="8"/>
       <name val="Arial Cyr"/>
@@ -1435,6 +1430,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1475,7 +1476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1787,64 +1788,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1903,7 +1846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2072,9 +2015,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2093,7 +2033,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2112,10 +2052,10 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2129,19 +2069,19 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2163,7 +2103,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2186,44 +2126,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2239,6 +2149,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3721,7 +3639,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4055,7 +3972,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4506,7 +4422,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4554,7 +4469,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4604,7 +4519,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5801,7 +5715,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="16" fmlaLink="$L$4" fmlaRange="$H$7:$H$27" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="16" fmlaLink="$L$4" fmlaRange="$H$7:$H$27" noThreeD="1" sel="6" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5833,7 +5747,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5121" name="Chart 1"/>
+        <xdr:cNvPr id="5121" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5860,15 +5780,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:colOff>317500</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5876,6 +5796,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5925,7 +5848,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2079" name="Chart 31"/>
+        <xdr:cNvPr id="2079" name="Chart 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5957,7 +5886,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2081" name="Picture 33"/>
+        <xdr:cNvPr id="2081" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6013,9 +5948,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>895350</xdr:colOff>
+          <xdr:colOff>901700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6023,6 +5958,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1130"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6062,15 +6000,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6078,6 +6016,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1189"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A5040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6117,13 +6058,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6133,6 +6074,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1289"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009050000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6187,7 +6131,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3079" name="Picture 7"/>
+        <xdr:cNvPr id="3079" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000070C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6242,7 +6192,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3081" name="Picture 9"/>
+        <xdr:cNvPr id="3081" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000090C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6297,7 +6253,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6327,7 +6289,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6421,6 +6389,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6456,6 +6441,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6631,69 +6633,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Worksheet____1"/>
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="110" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.5" thickBot="1">
+    <row r="2" spans="1:15" ht="14" thickBot="1">
       <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="48" customHeight="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="123" t="s">
+      <c r="G3" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="123" t="s">
+      <c r="I3" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="123" t="s">
+      <c r="J3" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6736,39 +6738,39 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="125">
+      <c r="A5" s="114">
         <v>1</v>
       </c>
-      <c r="B5" s="126">
+      <c r="B5" s="115">
         <v>1.3200635000000001E+52</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="114">
         <v>1.6240000000000001</v>
       </c>
-      <c r="D5" s="125">
+      <c r="D5" s="114">
         <v>1620</v>
       </c>
-      <c r="E5" s="125">
+      <c r="E5" s="114">
         <v>2.6207999999996998</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="114">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G5" s="126">
+      <c r="G5" s="115">
         <v>2640000000</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="127">
+      <c r="I5" s="116">
         <f t="shared" ref="I5:I67" si="1">2*E5*D5/(2*E5-1)</f>
         <v>2001.9313466616909</v>
       </c>
-      <c r="J5" s="128">
+      <c r="J5" s="117">
         <f t="shared" si="0"/>
         <v>218538053.75470608</v>
       </c>
-      <c r="K5" s="129">
+      <c r="K5" s="118">
         <f t="shared" ref="K5:K67" si="2">B5/((1+C5)^(2*E5))</f>
         <v>8.4053152720951695E+49</v>
       </c>
@@ -6798,11 +6800,11 @@
       <c r="H6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="107">
+      <c r="I6" s="106">
         <f t="shared" si="1"/>
         <v>2012.2880998171202</v>
       </c>
-      <c r="J6" s="108">
+      <c r="J6" s="107">
         <f t="shared" si="0"/>
         <v>200038882.17951778</v>
       </c>
@@ -6836,11 +6838,11 @@
       <c r="H7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="107">
+      <c r="I7" s="106">
         <f t="shared" si="1"/>
         <v>2022.6411572562401</v>
       </c>
-      <c r="J7" s="108">
+      <c r="J7" s="107">
         <f t="shared" si="0"/>
         <v>183237213.80570087</v>
       </c>
@@ -6874,11 +6876,11 @@
       <c r="H8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I8" s="106">
         <f t="shared" si="1"/>
         <v>2032.9905761107311</v>
       </c>
-      <c r="J8" s="108">
+      <c r="J8" s="107">
         <f t="shared" si="0"/>
         <v>167965856.18716684</v>
       </c>
@@ -6912,11 +6914,11 @@
       <c r="H9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="106">
         <f t="shared" si="1"/>
         <v>2043.3364123407216</v>
       </c>
-      <c r="J9" s="108">
+      <c r="J9" s="107">
         <f t="shared" si="0"/>
         <v>154075158.52451628</v>
       </c>
@@ -6950,11 +6952,11 @@
       <c r="H10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="107">
+      <c r="I10" s="106">
         <f t="shared" si="1"/>
         <v>2053.6787207646621</v>
       </c>
-      <c r="J10" s="108">
+      <c r="J10" s="107">
         <f t="shared" si="0"/>
         <v>141431062.99647093</v>
       </c>
@@ -6988,11 +6990,11 @@
       <c r="H11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="107">
+      <c r="I11" s="106">
         <f t="shared" si="1"/>
         <v>2064.0175550882959</v>
       </c>
-      <c r="J11" s="108">
+      <c r="J11" s="107">
         <f t="shared" si="0"/>
         <v>129913384.15759315</v>
       </c>
@@ -7026,11 +7028,11 @@
       <c r="H12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="107">
+      <c r="I12" s="106">
         <f t="shared" si="1"/>
         <v>2074.3529679327462</v>
       </c>
-      <c r="J12" s="108">
+      <c r="J12" s="107">
         <f t="shared" si="0"/>
         <v>119414288.39739411</v>
       </c>
@@ -7064,11 +7066,11 @@
       <c r="H13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="107">
+      <c r="I13" s="106">
         <f t="shared" si="1"/>
         <v>2084.6850108617605</v>
       </c>
-      <c r="J13" s="108">
+      <c r="J13" s="107">
         <f t="shared" si="0"/>
         <v>109836949.05110747</v>
       </c>
@@ -7102,11 +7104,11 @@
       <c r="H14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="107">
+      <c r="I14" s="106">
         <f t="shared" si="1"/>
         <v>2095.0137344081372</v>
       </c>
-      <c r="J14" s="108">
+      <c r="J14" s="107">
         <f t="shared" si="0"/>
         <v>101094355.8665393</v>
       </c>
@@ -7143,11 +7145,11 @@
       <c r="H15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="107">
+      <c r="I15" s="106">
         <f t="shared" si="1"/>
         <v>2105.3391880993613</v>
       </c>
-      <c r="J15" s="108">
+      <c r="J15" s="107">
         <f t="shared" si="0"/>
         <v>93108260.231389597</v>
       </c>
@@ -7181,11 +7183,11 @@
       <c r="H16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="107">
+      <c r="I16" s="106">
         <f t="shared" si="1"/>
         <v>2115.6614204824818</v>
       </c>
-      <c r="J16" s="108">
+      <c r="J16" s="107">
         <f t="shared" si="0"/>
         <v>85808239.90851143</v>
       </c>
@@ -7216,12 +7218,12 @@
       <c r="G17" s="2">
         <v>2880000000</v>
       </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="107">
+      <c r="H17" s="109"/>
+      <c r="I17" s="106">
         <f t="shared" si="1"/>
         <v>2125.9804791482529</v>
       </c>
-      <c r="J17" s="108">
+      <c r="J17" s="107">
         <f t="shared" si="0"/>
         <v>79130869.06186147</v>
       </c>
@@ -7252,12 +7254,12 @@
       <c r="G18" s="2">
         <v>2900000000</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="107">
+      <c r="H18" s="109"/>
+      <c r="I18" s="106">
         <f t="shared" si="1"/>
         <v>2136.2964107545654</v>
       </c>
-      <c r="J18" s="108">
+      <c r="J18" s="107">
         <f t="shared" si="0"/>
         <v>73018981.125346139</v>
       </c>
@@ -7288,12 +7290,12 @@
       <c r="G19" s="2">
         <v>2920000000</v>
       </c>
-      <c r="H19" s="110"/>
-      <c r="I19" s="107">
+      <c r="H19" s="109"/>
+      <c r="I19" s="106">
         <f t="shared" si="1"/>
         <v>2146.6092610491919</v>
       </c>
-      <c r="J19" s="108">
+      <c r="J19" s="107">
         <f t="shared" si="0"/>
         <v>67421013.606579453</v>
       </c>
@@ -7324,12 +7326,12 @@
       <c r="G20" s="2">
         <v>2940000000</v>
       </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="107">
+      <c r="H20" s="109"/>
+      <c r="I20" s="106">
         <f t="shared" si="1"/>
         <v>2156.91907489187</v>
       </c>
-      <c r="J20" s="108">
+      <c r="J20" s="107">
         <f t="shared" si="0"/>
         <v>62290425.258676298</v>
       </c>
@@ -7360,12 +7362,12 @@
       <c r="G21" s="2">
         <v>2960000000</v>
       </c>
-      <c r="H21" s="110"/>
-      <c r="I21" s="107">
+      <c r="H21" s="109"/>
+      <c r="I21" s="106">
         <f t="shared" si="1"/>
         <v>2167.2258962757478</v>
       </c>
-      <c r="J21" s="108">
+      <c r="J21" s="107">
         <f t="shared" si="0"/>
         <v>57585177.222318016</v>
       </c>
@@ -7396,12 +7398,12 @@
       <c r="G22" s="2">
         <v>2980000000</v>
       </c>
-      <c r="H22" s="110"/>
-      <c r="I22" s="107">
+      <c r="H22" s="109"/>
+      <c r="I22" s="106">
         <f t="shared" si="1"/>
         <v>2177.5297683482063</v>
       </c>
-      <c r="J22" s="108">
+      <c r="J22" s="107">
         <f t="shared" si="0"/>
         <v>53267270.760383531</v>
       </c>
@@ -7432,12 +7434,12 @@
       <c r="G23" s="2">
         <v>3000000000</v>
       </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="107">
+      <c r="H23" s="109"/>
+      <c r="I23" s="106">
         <f t="shared" si="1"/>
         <v>2187.8307334310894</v>
       </c>
-      <c r="J23" s="108">
+      <c r="J23" s="107">
         <f t="shared" si="0"/>
         <v>49302335.098193392</v>
       </c>
@@ -7468,12 +7470,12 @@
       <c r="G24" s="2">
         <v>3020000000</v>
       </c>
-      <c r="H24" s="110"/>
-      <c r="I24" s="107">
+      <c r="H24" s="109"/>
+      <c r="I24" s="106">
         <f t="shared" si="1"/>
         <v>2198.1288330403527</v>
       </c>
-      <c r="J24" s="108">
+      <c r="J24" s="107">
         <f t="shared" si="0"/>
         <v>45659259.660966493</v>
       </c>
@@ -7504,12 +7506,12 @@
       <c r="G25" s="2">
         <v>3040000000</v>
       </c>
-      <c r="H25" s="110"/>
-      <c r="I25" s="107">
+      <c r="H25" s="109"/>
+      <c r="I25" s="106">
         <f t="shared" si="1"/>
         <v>2208.424107905154</v>
       </c>
-      <c r="J25" s="108">
+      <c r="J25" s="107">
         <f t="shared" si="0"/>
         <v>42309865.681083828</v>
       </c>
@@ -7540,12 +7542,12 @@
       <c r="G26" s="2">
         <v>3060000000</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="107">
+      <c r="H26" s="109"/>
+      <c r="I26" s="106">
         <f t="shared" si="1"/>
         <v>2218.7165979864048</v>
       </c>
-      <c r="J26" s="108">
+      <c r="J26" s="107">
         <f t="shared" si="0"/>
         <v>39228612.743981734</v>
       </c>
@@ -7576,12 +7578,12 @@
       <c r="G27" s="2">
         <v>3080000000</v>
       </c>
-      <c r="H27" s="110"/>
-      <c r="I27" s="107">
+      <c r="H27" s="109"/>
+      <c r="I27" s="106">
         <f t="shared" si="1"/>
         <v>2229.0063424948003</v>
       </c>
-      <c r="J27" s="108">
+      <c r="J27" s="107">
         <f t="shared" si="0"/>
         <v>36392336.363887496</v>
       </c>
@@ -7612,12 +7614,12 @@
       <c r="G28" s="2">
         <v>3100000000</v>
       </c>
-      <c r="H28" s="110"/>
-      <c r="I28" s="107">
+      <c r="H28" s="109"/>
+      <c r="I28" s="106">
         <f t="shared" si="1"/>
         <v>2239.2933799083398</v>
       </c>
-      <c r="J28" s="108">
+      <c r="J28" s="107">
         <f t="shared" si="0"/>
         <v>33780013.138709366</v>
       </c>
@@ -7648,12 +7650,12 @@
       <c r="G29" s="2">
         <v>3120000000</v>
       </c>
-      <c r="H29" s="110"/>
-      <c r="I29" s="107">
+      <c r="H29" s="109"/>
+      <c r="I29" s="106">
         <f t="shared" si="1"/>
         <v>2249.5777479893645</v>
       </c>
-      <c r="J29" s="108">
+      <c r="J29" s="107">
         <f t="shared" si="0"/>
         <v>31372550.435436945</v>
       </c>
@@ -7684,12 +7686,12 @@
       <c r="G30" s="2">
         <v>3140000000</v>
       </c>
-      <c r="H30" s="110"/>
-      <c r="I30" s="107">
+      <c r="H30" s="109"/>
+      <c r="I30" s="106">
         <f t="shared" si="1"/>
         <v>2259.8594838011149</v>
       </c>
-      <c r="J30" s="108">
+      <c r="J30" s="107">
         <f t="shared" si="0"/>
         <v>29152597.910530083</v>
       </c>
@@ -7720,12 +7722,12 @@
       <c r="G31" s="2">
         <v>3160000000</v>
       </c>
-      <c r="H31" s="110"/>
-      <c r="I31" s="107">
+      <c r="H31" s="109"/>
+      <c r="I31" s="106">
         <f t="shared" si="1"/>
         <v>2270.1386237238394</v>
       </c>
-      <c r="J31" s="108">
+      <c r="J31" s="107">
         <f t="shared" si="0"/>
         <v>27104378.48017646</v>
       </c>
@@ -7756,12 +7758,12 @@
       <c r="G32" s="2">
         <v>3180000000</v>
       </c>
-      <c r="H32" s="110"/>
-      <c r="I32" s="107">
+      <c r="H32" s="109"/>
+      <c r="I32" s="106">
         <f t="shared" si="1"/>
         <v>2280.4152034704493</v>
       </c>
-      <c r="J32" s="108">
+      <c r="J32" s="107">
         <f t="shared" si="0"/>
         <v>25213536.628367968</v>
       </c>
@@ -7792,12 +7794,12 @@
       <c r="G33" s="2">
         <v>3200000000</v>
       </c>
-      <c r="H33" s="110"/>
-      <c r="I33" s="107">
+      <c r="H33" s="109"/>
+      <c r="I33" s="106">
         <f t="shared" si="1"/>
         <v>2290.6892581017546</v>
       </c>
-      <c r="J33" s="108">
+      <c r="J33" s="107">
         <f t="shared" si="0"/>
         <v>23467002.181156624</v>
       </c>
@@ -7828,12 +7830,12 @@
       <c r="G34" s="2">
         <v>3220000000</v>
       </c>
-      <c r="H34" s="110"/>
-      <c r="I34" s="107">
+      <c r="H34" s="109"/>
+      <c r="I34" s="106">
         <f t="shared" si="1"/>
         <v>2300.9608220412783</v>
       </c>
-      <c r="J34" s="108">
+      <c r="J34" s="107">
         <f t="shared" si="0"/>
         <v>21852867.88726715</v>
       </c>
@@ -7864,12 +7866,12 @@
       <c r="G35" s="2">
         <v>3240000000</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="107">
+      <c r="H35" s="109"/>
+      <c r="I35" s="106">
         <f t="shared" si="1"/>
         <v>2311.2299290896713</v>
       </c>
-      <c r="J35" s="108">
+      <c r="J35" s="107">
         <f t="shared" si="0"/>
         <v>20360279.332012668</v>
       </c>
@@ -7900,12 +7902,12 @@
       <c r="G36" s="2">
         <v>3260000000</v>
       </c>
-      <c r="H36" s="110"/>
-      <c r="I36" s="107">
+      <c r="H36" s="109"/>
+      <c r="I36" s="106">
         <f t="shared" si="1"/>
         <v>2321.4966124387356</v>
       </c>
-      <c r="J36" s="108">
+      <c r="J36" s="107">
         <f t="shared" si="0"/>
         <v>18979335.876271565</v>
       </c>
@@ -7936,12 +7938,12 @@
       <c r="G37" s="2">
         <v>3280000000</v>
       </c>
-      <c r="H37" s="110"/>
-      <c r="I37" s="107">
+      <c r="H37" s="109"/>
+      <c r="I37" s="106">
         <f t="shared" si="1"/>
         <v>2331.7609046850739</v>
       </c>
-      <c r="J37" s="108">
+      <c r="J37" s="107">
         <f t="shared" si="0"/>
         <v>17701001.457819954</v>
       </c>
@@ -7972,12 +7974,12 @@
       <c r="G38" s="2">
         <v>3300000000</v>
       </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="107">
+      <c r="H38" s="109"/>
+      <c r="I38" s="106">
         <f t="shared" si="1"/>
         <v>2342.0228378433703</v>
       </c>
-      <c r="J38" s="108">
+      <c r="J38" s="107">
         <f t="shared" si="0"/>
         <v>16517024.220925113</v>
       </c>
@@ -8008,12 +8010,12 @@
       <c r="G39" s="2">
         <v>3320000000</v>
       </c>
-      <c r="H39" s="110"/>
-      <c r="I39" s="107">
+      <c r="H39" s="109"/>
+      <c r="I39" s="106">
         <f t="shared" si="1"/>
         <v>2352.2824433593191</v>
       </c>
-      <c r="J39" s="108">
+      <c r="J39" s="107">
         <f t="shared" si="0"/>
         <v>15419864.053852709</v>
       </c>
@@ -8044,12 +8046,12 @@
       <c r="G40" s="2">
         <v>3340000000</v>
       </c>
-      <c r="H40" s="110"/>
-      <c r="I40" s="107">
+      <c r="H40" s="109"/>
+      <c r="I40" s="106">
         <f t="shared" si="1"/>
         <v>2362.5397521222076</v>
       </c>
-      <c r="J40" s="108">
+      <c r="J40" s="107">
         <f t="shared" si="0"/>
         <v>14402627.214597743</v>
       </c>
@@ -8080,12 +8082,12 @@
       <c r="G41" s="2">
         <v>3360000000</v>
       </c>
-      <c r="H41" s="110"/>
-      <c r="I41" s="107">
+      <c r="H41" s="109"/>
+      <c r="I41" s="106">
         <f t="shared" si="1"/>
         <v>2372.7947944771699</v>
       </c>
-      <c r="J41" s="108">
+      <c r="J41" s="107">
         <f t="shared" si="0"/>
         <v>13459007.314305143</v>
       </c>
@@ -8116,12 +8118,12 @@
       <c r="G42" s="2">
         <v>3380000000</v>
       </c>
-      <c r="H42" s="110"/>
-      <c r="I42" s="107">
+      <c r="H42" s="109"/>
+      <c r="I42" s="106">
         <f t="shared" si="1"/>
         <v>2383.0476002371174</v>
       </c>
-      <c r="J42" s="108">
+      <c r="J42" s="107">
         <f t="shared" si="0"/>
         <v>12583232.006852096</v>
       </c>
@@ -8152,12 +8154,12 @@
       <c r="G43" s="2">
         <v>3400000000</v>
       </c>
-      <c r="H43" s="110"/>
-      <c r="I43" s="107">
+      <c r="H43" s="109"/>
+      <c r="I43" s="106">
         <f t="shared" si="1"/>
         <v>2393.2981986943555</v>
       </c>
-      <c r="J43" s="108">
+      <c r="J43" s="107">
         <f t="shared" si="0"/>
         <v>11770014.803142646</v>
       </c>
@@ -8188,12 +8190,12 @@
       <c r="G44" s="2">
         <v>3420000000</v>
       </c>
-      <c r="H44" s="110"/>
-      <c r="I44" s="107">
+      <c r="H44" s="109"/>
+      <c r="I44" s="106">
         <f t="shared" si="1"/>
         <v>2403.5466186318954</v>
       </c>
-      <c r="J44" s="108">
+      <c r="J44" s="107">
         <f t="shared" si="0"/>
         <v>11014511.490853539</v>
       </c>
@@ -8224,12 +8226,12 @@
       <c r="G45" s="2">
         <v>3440000000</v>
       </c>
-      <c r="H45" s="110"/>
-      <c r="I45" s="107">
+      <c r="H45" s="109"/>
+      <c r="I45" s="106">
         <f t="shared" si="1"/>
         <v>2413.7928883344807</v>
       </c>
-      <c r="J45" s="108">
+      <c r="J45" s="107">
         <f t="shared" si="0"/>
         <v>10312280.695606412</v>
       </c>
@@ -8260,12 +8262,12 @@
       <c r="G46" s="2">
         <v>3460000000</v>
       </c>
-      <c r="H46" s="110"/>
-      <c r="I46" s="107">
+      <c r="H46" s="109"/>
+      <c r="I46" s="106">
         <f t="shared" si="1"/>
         <v>2424.0370355993164</v>
       </c>
-      <c r="J46" s="108">
+      <c r="J46" s="107">
         <f t="shared" si="0"/>
         <v>9659248.1686247047</v>
       </c>
@@ -8296,12 +8298,12 @@
       <c r="G47" s="2">
         <v>3480000000</v>
       </c>
-      <c r="H47" s="110"/>
-      <c r="I47" s="107">
+      <c r="H47" s="109"/>
+      <c r="I47" s="106">
         <f t="shared" si="1"/>
         <v>2434.2790877465341</v>
       </c>
-      <c r="J47" s="108">
+      <c r="J47" s="107">
         <f t="shared" si="0"/>
         <v>9051674.4295912292</v>
       </c>
@@ -8332,12 +8334,12 @@
       <c r="G48" s="2">
         <v>3500000000</v>
       </c>
-      <c r="H48" s="110"/>
-      <c r="I48" s="107">
+      <c r="H48" s="109"/>
+      <c r="I48" s="106">
         <f t="shared" si="1"/>
         <v>2444.5190716293782</v>
       </c>
-      <c r="J48" s="108">
+      <c r="J48" s="107">
         <f t="shared" si="0"/>
         <v>8486125.432267921</v>
       </c>
@@ -8368,12 +8370,12 @@
       <c r="G49" s="2">
         <v>3520000000</v>
       </c>
-      <c r="H49" s="110"/>
-      <c r="I49" s="107">
+      <c r="H49" s="109"/>
+      <c r="I49" s="106">
         <f t="shared" si="1"/>
         <v>2454.7570136441409</v>
       </c>
-      <c r="J49" s="108">
+      <c r="J49" s="107">
         <f t="shared" si="0"/>
         <v>7959445.95503591</v>
       </c>
@@ -8404,12 +8406,12 @@
       <c r="G50" s="2">
         <v>3540000000</v>
       </c>
-      <c r="H50" s="110"/>
-      <c r="I50" s="107">
+      <c r="H50" s="109"/>
+      <c r="I50" s="106">
         <f t="shared" si="1"/>
         <v>2464.9929397398378</v>
       </c>
-      <c r="J50" s="108">
+      <c r="J50" s="107">
         <f t="shared" si="0"/>
         <v>7468735.4493389046</v>
       </c>
@@ -8440,12 +8442,12 @@
       <c r="G51" s="2">
         <v>3560000000</v>
       </c>
-      <c r="H51" s="110"/>
-      <c r="I51" s="107">
+      <c r="H51" s="109"/>
+      <c r="I51" s="106">
         <f t="shared" si="1"/>
         <v>2475.2268754276433</v>
       </c>
-      <c r="J51" s="108">
+      <c r="J51" s="107">
         <f t="shared" si="0"/>
         <v>7011326.1065022619</v>
       </c>
@@ -8476,12 +8478,12 @@
       <c r="G52" s="2">
         <v>3580000000</v>
       </c>
-      <c r="H52" s="110"/>
-      <c r="I52" s="107">
+      <c r="H52" s="109"/>
+      <c r="I52" s="106">
         <f t="shared" si="1"/>
         <v>2485.4588457900854</v>
       </c>
-      <c r="J52" s="108">
+      <c r="J52" s="107">
         <f t="shared" si="0"/>
         <v>6584762.927922491</v>
       </c>
@@ -8512,12 +8514,12 @@
       <c r="G53" s="2">
         <v>3600000000</v>
       </c>
-      <c r="H53" s="110"/>
-      <c r="I53" s="107">
+      <c r="H53" s="109"/>
+      <c r="I53" s="106">
         <f t="shared" si="1"/>
         <v>2495.6888754900151</v>
       </c>
-      <c r="J53" s="108">
+      <c r="J53" s="107">
         <f t="shared" si="0"/>
         <v>6186785.6055223811</v>
       </c>
@@ -8548,12 +8550,12 @@
       <c r="G54" s="2">
         <v>3620000000</v>
       </c>
-      <c r="H54" s="110"/>
-      <c r="I54" s="107">
+      <c r="H54" s="109"/>
+      <c r="I54" s="106">
         <f t="shared" si="1"/>
         <v>2505.9169887793405</v>
       </c>
-      <c r="J54" s="108">
+      <c r="J54" s="107">
         <f t="shared" si="0"/>
         <v>5815312.0389199639</v>
       </c>
@@ -8584,12 +8586,12 @@
       <c r="G55" s="2">
         <v>3640000000</v>
       </c>
-      <c r="H55" s="110"/>
-      <c r="I55" s="107">
+      <c r="H55" s="109"/>
+      <c r="I55" s="106">
         <f t="shared" si="1"/>
         <v>2516.1432095075538</v>
       </c>
-      <c r="J55" s="108">
+      <c r="J55" s="107">
         <f t="shared" si="0"/>
         <v>5468423.3332582563</v>
       </c>
@@ -8620,12 +8622,12 @@
       <c r="G56" s="2">
         <v>3660000000</v>
       </c>
-      <c r="H56" s="110"/>
-      <c r="I56" s="107">
+      <c r="H56" s="109"/>
+      <c r="I56" s="106">
         <f t="shared" si="1"/>
         <v>2526.3675611300446</v>
       </c>
-      <c r="J56" s="108">
+      <c r="J56" s="107">
         <f t="shared" si="0"/>
         <v>5144350.1372721167</v>
       </c>
@@ -8656,12 +8658,12 @@
       <c r="G57" s="2">
         <v>3680000000</v>
       </c>
-      <c r="H57" s="110"/>
-      <c r="I57" s="107">
+      <c r="H57" s="109"/>
+      <c r="I57" s="106">
         <f t="shared" si="1"/>
         <v>2536.590066716205</v>
       </c>
-      <c r="J57" s="108">
+      <c r="J57" s="107">
         <f t="shared" si="0"/>
         <v>4841460.1951743923</v>
       </c>
@@ -8692,12 +8694,12 @@
       <c r="G58" s="2">
         <v>3700000000</v>
       </c>
-      <c r="H58" s="110"/>
-      <c r="I58" s="107">
+      <c r="H58" s="109"/>
+      <c r="I58" s="106">
         <f t="shared" si="1"/>
         <v>2546.8107489573385</v>
       </c>
-      <c r="J58" s="108">
+      <c r="J58" s="107">
         <f t="shared" si="0"/>
         <v>4558246.998479398</v>
       </c>
@@ -8728,12 +8730,12 @@
       <c r="G59" s="2">
         <v>3720000000</v>
       </c>
-      <c r="H59" s="110"/>
-      <c r="I59" s="107">
+      <c r="H59" s="109"/>
+      <c r="I59" s="106">
         <f t="shared" si="1"/>
         <v>2557.0296301743733</v>
       </c>
-      <c r="J59" s="108">
+      <c r="J59" s="107">
         <f t="shared" si="0"/>
         <v>4293319.4351160731</v>
       </c>
@@ -8764,12 +8766,12 @@
       <c r="G60" s="2">
         <v>3740000000</v>
       </c>
-      <c r="H60" s="110"/>
-      <c r="I60" s="107">
+      <c r="H60" s="109"/>
+      <c r="I60" s="106">
         <f t="shared" si="1"/>
         <v>2567.2467323253886</v>
       </c>
-      <c r="J60" s="108">
+      <c r="J60" s="107">
         <f t="shared" si="0"/>
         <v>4045392.3432572749</v>
       </c>
@@ -8800,12 +8802,12 @@
       <c r="G61" s="2">
         <v>3760000000</v>
       </c>
-      <c r="H61" s="110"/>
-      <c r="I61" s="107">
+      <c r="H61" s="109"/>
+      <c r="I61" s="106">
         <f t="shared" si="1"/>
         <v>2577.4620770129586</v>
       </c>
-      <c r="J61" s="108">
+      <c r="J61" s="107">
         <f t="shared" si="0"/>
         <v>3813277.8863293971</v>
       </c>
@@ -8836,12 +8838,12 @@
       <c r="G62" s="2">
         <v>3780000000</v>
       </c>
-      <c r="H62" s="110"/>
-      <c r="I62" s="107">
+      <c r="H62" s="109"/>
+      <c r="I62" s="106">
         <f t="shared" si="1"/>
         <v>2587.6756854913169</v>
       </c>
-      <c r="J62" s="108">
+      <c r="J62" s="107">
         <f t="shared" si="0"/>
         <v>3595877.6737794653</v>
       </c>
@@ -8872,12 +8874,12 @@
       <c r="G63" s="2">
         <v>3800000000</v>
       </c>
-      <c r="H63" s="110"/>
-      <c r="I63" s="107">
+      <c r="H63" s="109"/>
+      <c r="I63" s="106">
         <f t="shared" si="1"/>
         <v>2597.8875786733511</v>
       </c>
-      <c r="J63" s="108">
+      <c r="J63" s="107">
         <f t="shared" si="0"/>
         <v>3392175.5594644416</v>
       </c>
@@ -8908,12 +8910,12 @@
       <c r="G64" s="2">
         <v>3820000000</v>
       </c>
-      <c r="H64" s="110"/>
-      <c r="I64" s="107">
+      <c r="H64" s="109"/>
+      <c r="I64" s="106">
         <f t="shared" si="1"/>
         <v>2608.0977771374251</v>
       </c>
-      <c r="J64" s="108">
+      <c r="J64" s="107">
         <f t="shared" si="0"/>
         <v>3201231.0560765942</v>
       </c>
@@ -8944,12 +8946,12 @@
       <c r="G65" s="2">
         <v>3840000000</v>
       </c>
-      <c r="H65" s="110"/>
-      <c r="I65" s="107">
+      <c r="H65" s="109"/>
+      <c r="I65" s="106">
         <f t="shared" si="1"/>
         <v>2618.3063011340441</v>
       </c>
-      <c r="J65" s="108">
+      <c r="J65" s="107">
         <f t="shared" si="0"/>
         <v>3022173.3099087169</v>
       </c>
@@ -8980,12 +8982,12 @@
       <c r="G66" s="2">
         <v>3860000000</v>
       </c>
-      <c r="H66" s="110"/>
-      <c r="I66" s="107">
+      <c r="H66" s="109"/>
+      <c r="I66" s="106">
         <f t="shared" si="1"/>
         <v>2628.5131705923582</v>
       </c>
-      <c r="J66" s="108">
+      <c r="J66" s="107">
         <f t="shared" si="0"/>
         <v>2854195.5855615102</v>
       </c>
@@ -9016,12 +9018,12 @@
       <c r="G67" s="2">
         <v>3880000000</v>
       </c>
-      <c r="H67" s="110"/>
-      <c r="I67" s="107">
+      <c r="H67" s="109"/>
+      <c r="I67" s="106">
         <f t="shared" si="1"/>
         <v>2638.7184051265085</v>
       </c>
-      <c r="J67" s="108">
+      <c r="J67" s="107">
         <f t="shared" si="0"/>
         <v>2696550.214966367</v>
       </c>
@@ -9039,21 +9041,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Worksheet____2"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9066,8 +9068,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.5" thickBot="1"/>
-    <row r="4" spans="1:8" ht="15" thickBot="1">
+    <row r="3" spans="1:8" ht="14" thickBot="1"/>
+    <row r="4" spans="1:8" ht="16" thickBot="1">
       <c r="A4" s="23" t="s">
         <v>31</v>
       </c>
@@ -9617,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.5" thickBot="1">
+    <row r="21" spans="1:8" ht="14" thickBot="1">
       <c r="A21" s="31">
         <v>16</v>
       </c>
@@ -9660,26 +9662,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Worksheet____3"/>
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -9694,19 +9696,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="16">
       <c r="A4" s="8"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
       <c r="L4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1">
@@ -9726,38 +9728,38 @@
       <c r="J5" s="120"/>
     </row>
     <row r="6" spans="1:12" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="99" t="s">
+      <c r="J6" s="98" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" ht="14" thickBot="1">
       <c r="A7" s="30">
         <v>1</v>
       </c>
@@ -9769,27 +9771,27 @@
         <f ca="1">ABS($F$7-B7)</f>
         <v>2000.7711441597594</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91">
+      <c r="D7" s="89"/>
+      <c r="E7" s="90">
         <f>INDEX(H7:H27,L4)</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="92">
+        <v>1.25</v>
+      </c>
+      <c r="F7" s="91">
         <f>sheet1!I5</f>
         <v>2001.9313466616909</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="92">
         <f ca="1">IF(sheet4!$K$7&lt;10,IF(sheet4!$K$7&gt;8,ABS((D14-D13)/D14),IF(sheet4!$K$7&gt;7,ABS((D13-D12)/D13),IF(sheet4!$K$7&gt;6,ABS((D12-D11)/D12),IF(sheet4!$K$7&gt;5,ABS((D11-D10)/D11),IF(sheet4!$K$7&gt;4,ABS((D10-D9)/D10),IF(sheet4!$K$7&gt;3,ABS((D9-D8)/D9),"Think: If k&lt;=3, then what it is equal SIGMA to?")))))),IF(sheet4!$K$7&gt;15,IF(sheet4!$K$7&gt;20,ABS((D26-D25)/D26),IF(sheet4!K7&gt;19,ABS((D25-D24)/D25),IF(sheet4!$K$7&gt;18,ABS((D24-D23)/D24),IF(sheet4!$K$7&gt;17,ABS((D23-D22)/D23),IF(sheet4!$K$7&gt;15,ABS((D21-D20)/D21)))))),IF(sheet4!$K$7&gt;14,ABS((D20-D19)/D20),IF(sheet4!$K$7&gt;13,ABS((D19-D18)/D19),IF(sheet4!$K$7&gt;12,ABS((D18-D17)/D18),IF(sheet4!$K$7&gt;11,ABS((D17-D16)/D17),IF(sheet4!$K$7&gt;10,ABS((D16-D15)/D16),ABS((D15-D14)/D15))))))))</f>
-        <v>1.8838815933105603E-4</v>
-      </c>
-      <c r="H7" s="94">
+        <v>1.0362678939172262E-4</v>
+      </c>
+      <c r="H7" s="93">
         <v>1</v>
       </c>
-      <c r="I7" s="95">
+      <c r="I7" s="94">
         <f ca="1">IF($E$7=H7,$G$7,I7)</f>
         <v>1.8838815933105603E-4</v>
       </c>
-      <c r="J7" s="96">
+      <c r="J7" s="95">
         <f ca="1">MIN(I7:I27)</f>
         <v>1.3168957902995504E-5</v>
       </c>
@@ -9808,7 +9810,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D26" ca="1" si="1">C8/C7^$E$7</f>
-        <v>0.99990710333926736</v>
+        <v>0.1495065775240362</v>
       </c>
       <c r="H8" s="53">
         <v>1.05</v>
@@ -9832,7 +9834,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99989221284475338</v>
+        <v>0.14950782340568702</v>
       </c>
       <c r="H9" s="53">
         <v>1.1000000000000001</v>
@@ -9856,7 +9858,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99987493423208007</v>
+        <v>0.14950926879698631</v>
       </c>
       <c r="H10" s="53">
         <v>1.1499999999999999</v>
@@ -9880,7 +9882,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99985488404549738</v>
+        <v>0.14951094562785949</v>
       </c>
       <c r="H11" s="53">
         <v>1.2</v>
@@ -9904,7 +9906,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99983161710176371</v>
+        <v>0.14951289093188719</v>
       </c>
       <c r="H12" s="53">
         <v>1.25</v>
@@ -9928,8 +9930,9 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99980461649918473</v>
-      </c>
+        <v>0.14951514765980753</v>
+      </c>
+      <c r="F13" s="121"/>
       <c r="H13" s="53">
         <v>1.3</v>
       </c>
@@ -9952,7 +9955,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99977328199077775</v>
+        <v>0.14951776562189625</v>
       </c>
       <c r="H14" s="53">
         <v>1.35</v>
@@ -9976,7 +9979,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99973691644723073</v>
+        <v>0.14952080257935527</v>
       </c>
       <c r="H15" s="53">
         <v>1.4</v>
@@ -10000,7 +10003,7 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99969471008710487</v>
+        <v>0.14952432550789418</v>
       </c>
       <c r="H16" s="53">
         <v>1.45</v>
@@ -10010,7 +10013,7 @@
         <v>3.3717736237476721E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:17">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -10024,7 +10027,7 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99964572209426816</v>
+        <v>0.14952841206014489</v>
       </c>
       <c r="H17" s="53">
         <v>1.5</v>
@@ -10034,7 +10037,7 @@
         <v>3.9555648144606539E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:17">
       <c r="A18" s="4">
         <v>12</v>
       </c>
@@ -10048,7 +10051,7 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99958885917386864</v>
+        <v>0.14953315225749311</v>
       </c>
       <c r="H18" s="53">
         <v>1.55</v>
@@ -10058,7 +10061,7 @@
         <v>4.5393219124802137E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:17">
       <c r="A19" s="4">
         <v>13</v>
       </c>
@@ -10072,7 +10075,7 @@
       </c>
       <c r="D19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99952285051570633</v>
+        <v>0.14953865044634204</v>
       </c>
       <c r="H19" s="53">
         <v>1.6</v>
@@ -10081,8 +10084,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>5.1230449197615057E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -10096,7 +10107,7 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99944621853447502</v>
+        <v>0.1495450275588148</v>
       </c>
       <c r="H20" s="53">
         <v>1.65</v>
@@ -10105,8 +10116,14 @@
         <f t="shared" ca="1" si="2"/>
         <v>5.7067338383309774E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -10120,7 +10137,7 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99935724463595521</v>
+        <v>0.14955242372344779</v>
       </c>
       <c r="H21" s="53">
         <v>1.7</v>
@@ -10129,8 +10146,14 @@
         <f t="shared" ca="1" si="2"/>
         <v>6.2903886701824025E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -10144,7 +10167,7 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99925392911166189</v>
+        <v>0.14956100127755367</v>
       </c>
       <c r="H22" s="53">
         <v>1.75</v>
@@ -10153,8 +10176,14 @@
         <f t="shared" ca="1" si="2"/>
         <v>6.8740094172495942E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>17</v>
       </c>
@@ -10168,7 +10197,7 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99913394408498435</v>
+        <v>0.14957094823958564</v>
       </c>
       <c r="H23" s="53">
         <v>1.8</v>
@@ -10177,8 +10206,14 @@
         <f t="shared" ca="1" si="2"/>
         <v>7.4575960815760004E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="4">
         <v>18</v>
       </c>
@@ -10192,7 +10227,7 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99899457821078974</v>
+        <v>0.14958248230694426</v>
       </c>
       <c r="H24" s="53">
         <v>1.85</v>
@@ -10201,8 +10236,14 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.0411486651186528E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>19</v>
       </c>
@@ -10216,7 +10257,7 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99883267155641575</v>
+        <v>0.14959585545205137</v>
       </c>
       <c r="H25" s="53">
         <v>1.9</v>
@@ -10225,8 +10266,14 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.6246671699042644E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="13.5" thickBot="1">
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+    </row>
+    <row r="26" spans="1:17" ht="14" thickBot="1">
       <c r="A26" s="31">
         <v>20</v>
       </c>
@@ -10240,7 +10287,7 @@
       </c>
       <c r="D26" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99864453874993464</v>
+        <v>0.14961135919686147</v>
       </c>
       <c r="H26" s="53">
         <v>1.95</v>
@@ -10249,9 +10296,14 @@
         <f t="shared" ca="1" si="2"/>
         <v>9.2081515978840902E-4</v>
       </c>
-      <c r="L26" s="69"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.5" thickBot="1">
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+    </row>
+    <row r="27" spans="1:17" ht="14" thickBot="1">
       <c r="H27" s="54">
         <v>2</v>
       </c>
@@ -10260,203 +10312,170 @@
         <v>9.7916019510998326E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="29" spans="1:12">
-      <c r="G29" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="113"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="G30" s="114"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="G31" s="114"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="G32" s="114"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="G33" s="114"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-    </row>
-    <row r="34" spans="1:10" ht="13.5" thickBot="1">
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="119"/>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A37" s="70" t="s">
+    <row r="29" spans="1:17" ht="13" customHeight="1"/>
+    <row r="30" spans="1:17" ht="13" customHeight="1"/>
+    <row r="31" spans="1:17" ht="13" customHeight="1"/>
+    <row r="32" spans="1:17" ht="13" customHeight="1"/>
+    <row r="33" spans="1:6" ht="13" customHeight="1"/>
+    <row r="34" spans="1:6" ht="14" customHeight="1"/>
+    <row r="37" spans="1:6" ht="17" thickBot="1">
+      <c r="A37" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-    </row>
-    <row r="38" spans="1:10" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A38" s="75" t="s">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+    </row>
+    <row r="38" spans="1:6" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A38" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="75" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:6">
       <c r="A39" s="26">
         <v>1</v>
       </c>
-      <c r="B39" s="72">
+      <c r="B39" s="71">
         <v>1.0000000000031264</v>
       </c>
-      <c r="C39" s="85">
+      <c r="C39" s="84">
         <v>726.86885245901715</v>
       </c>
       <c r="D39" s="28">
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:6">
       <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="73">
+      <c r="B40" s="72">
         <v>41.835333605343706</v>
       </c>
-      <c r="C40" s="86">
+      <c r="C40" s="85">
         <v>712.03479424556781</v>
       </c>
       <c r="D40" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:6">
       <c r="A41" s="4">
         <v>3</v>
       </c>
-      <c r="B41" s="73">
+      <c r="B41" s="72">
         <v>82.670667210684286</v>
       </c>
-      <c r="C41" s="86">
+      <c r="C41" s="85">
         <v>697.20073603211847</v>
       </c>
       <c r="D41" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:6">
       <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" s="73">
+      <c r="B42" s="72">
         <v>123.50600081602487</v>
       </c>
-      <c r="C42" s="86">
+      <c r="C42" s="85">
         <v>682.36667781866913</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:6">
       <c r="A43" s="4">
         <v>5</v>
       </c>
-      <c r="B43" s="73">
+      <c r="B43" s="72">
         <v>164.34133442136545</v>
       </c>
-      <c r="C43" s="86">
+      <c r="C43" s="85">
         <v>667.53261960521979</v>
       </c>
       <c r="D43" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:6">
       <c r="A44" s="4">
         <v>6</v>
       </c>
-      <c r="B44" s="73">
+      <c r="B44" s="72">
         <v>205.17666802670601</v>
       </c>
-      <c r="C44" s="86">
+      <c r="C44" s="85">
         <v>652.69856139177045</v>
       </c>
       <c r="D44" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:6">
       <c r="A45" s="4">
         <v>7</v>
       </c>
-      <c r="B45" s="73">
+      <c r="B45" s="72">
         <v>246.01200163204658</v>
       </c>
-      <c r="C45" s="86">
+      <c r="C45" s="85">
         <v>637.86450317832112</v>
       </c>
       <c r="D45" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:6">
       <c r="A46" s="4">
         <v>8</v>
       </c>
-      <c r="B46" s="73">
+      <c r="B46" s="72">
         <v>286.84733523738714</v>
       </c>
-      <c r="C46" s="86">
+      <c r="C46" s="85">
         <v>623.03044496487178</v>
       </c>
       <c r="D46" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:6">
       <c r="A47" s="4">
         <v>9</v>
       </c>
-      <c r="B47" s="73">
+      <c r="B47" s="72">
         <v>327.68266884272771</v>
       </c>
-      <c r="C47" s="86">
+      <c r="C47" s="85">
         <v>608.19638675142255</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:6">
       <c r="A48" s="4">
         <v>10</v>
       </c>
-      <c r="B48" s="73">
+      <c r="B48" s="72">
         <v>368.51800244806827</v>
       </c>
-      <c r="C48" s="86">
+      <c r="C48" s="85">
         <v>593.36232853797321</v>
       </c>
       <c r="D48" s="5">
@@ -10467,10 +10486,10 @@
       <c r="A49" s="4">
         <v>11</v>
       </c>
-      <c r="B49" s="73">
+      <c r="B49" s="72">
         <v>409.35333605340884</v>
       </c>
-      <c r="C49" s="86">
+      <c r="C49" s="85">
         <v>578.52827032452387</v>
       </c>
       <c r="D49" s="5">
@@ -10481,10 +10500,10 @@
       <c r="A50" s="4">
         <v>12</v>
       </c>
-      <c r="B50" s="73">
+      <c r="B50" s="72">
         <v>450.1886696587494</v>
       </c>
-      <c r="C50" s="86">
+      <c r="C50" s="85">
         <v>563.69421211107453</v>
       </c>
       <c r="D50" s="5">
@@ -10495,10 +10514,10 @@
       <c r="A51" s="4">
         <v>13</v>
       </c>
-      <c r="B51" s="73">
+      <c r="B51" s="72">
         <v>491.02400326408997</v>
       </c>
-      <c r="C51" s="86">
+      <c r="C51" s="85">
         <v>548.8601538976252</v>
       </c>
       <c r="D51" s="5">
@@ -10509,10 +10528,10 @@
       <c r="A52" s="4">
         <v>14</v>
       </c>
-      <c r="B52" s="73">
+      <c r="B52" s="72">
         <v>531.85933686943054</v>
       </c>
-      <c r="C52" s="86">
+      <c r="C52" s="85">
         <v>534.02609568417597</v>
       </c>
       <c r="D52" s="5">
@@ -10523,10 +10542,10 @@
       <c r="A53" s="4">
         <v>15</v>
       </c>
-      <c r="B53" s="73">
+      <c r="B53" s="72">
         <v>572.6946704747711</v>
       </c>
-      <c r="C53" s="86">
+      <c r="C53" s="85">
         <v>519.19203747072663</v>
       </c>
       <c r="D53" s="5">
@@ -10537,10 +10556,10 @@
       <c r="A54" s="4">
         <v>16</v>
       </c>
-      <c r="B54" s="73">
+      <c r="B54" s="72">
         <v>613.53000408011167</v>
       </c>
-      <c r="C54" s="86">
+      <c r="C54" s="85">
         <v>504.35797925727729</v>
       </c>
       <c r="D54" s="5">
@@ -10551,10 +10570,10 @@
       <c r="A55" s="4">
         <v>17</v>
       </c>
-      <c r="B55" s="73">
+      <c r="B55" s="72">
         <v>654.36533768545223</v>
       </c>
-      <c r="C55" s="86">
+      <c r="C55" s="85">
         <v>489.52392104382801</v>
       </c>
       <c r="D55" s="5">
@@ -10565,10 +10584,10 @@
       <c r="A56" s="4">
         <v>18</v>
       </c>
-      <c r="B56" s="73">
+      <c r="B56" s="72">
         <v>695.2006712907928</v>
       </c>
-      <c r="C56" s="86">
+      <c r="C56" s="85">
         <v>474.68986283037873</v>
       </c>
       <c r="D56" s="5">
@@ -10579,10 +10598,10 @@
       <c r="A57" s="4">
         <v>19</v>
       </c>
-      <c r="B57" s="73">
+      <c r="B57" s="72">
         <v>736.03600489613336</v>
       </c>
-      <c r="C57" s="86">
+      <c r="C57" s="85">
         <v>459.85580461692939</v>
       </c>
       <c r="D57" s="5">
@@ -10593,10 +10612,10 @@
       <c r="A58" s="4">
         <v>20</v>
       </c>
-      <c r="B58" s="73">
+      <c r="B58" s="72">
         <v>776.87133850147393</v>
       </c>
-      <c r="C58" s="86">
+      <c r="C58" s="85">
         <v>445.02174640348005</v>
       </c>
       <c r="D58" s="5">
@@ -10607,10 +10626,10 @@
       <c r="A59" s="4">
         <v>21</v>
       </c>
-      <c r="B59" s="73">
+      <c r="B59" s="72">
         <v>817.70667210681449</v>
       </c>
-      <c r="C59" s="86">
+      <c r="C59" s="85">
         <v>430.18768819003071</v>
       </c>
       <c r="D59" s="5">
@@ -10621,10 +10640,10 @@
       <c r="A60" s="4">
         <v>22</v>
       </c>
-      <c r="B60" s="73">
+      <c r="B60" s="72">
         <v>858.54200571215506</v>
       </c>
-      <c r="C60" s="86">
+      <c r="C60" s="85">
         <v>415.35362997658137</v>
       </c>
       <c r="D60" s="5">
@@ -10635,10 +10654,10 @@
       <c r="A61" s="4">
         <v>23</v>
       </c>
-      <c r="B61" s="73">
+      <c r="B61" s="72">
         <v>899.37733931749563</v>
       </c>
-      <c r="C61" s="86">
+      <c r="C61" s="85">
         <v>400.51957176313203</v>
       </c>
       <c r="D61" s="5">
@@ -10649,10 +10668,10 @@
       <c r="A62" s="4">
         <v>24</v>
       </c>
-      <c r="B62" s="73">
+      <c r="B62" s="72">
         <v>940.21267292283619</v>
       </c>
-      <c r="C62" s="86">
+      <c r="C62" s="85">
         <v>385.6855135496827</v>
       </c>
       <c r="D62" s="5">
@@ -10663,10 +10682,10 @@
       <c r="A63" s="4">
         <v>25</v>
       </c>
-      <c r="B63" s="73">
+      <c r="B63" s="72">
         <v>981.04800652817676</v>
       </c>
-      <c r="C63" s="86">
+      <c r="C63" s="85">
         <v>370.85145533623336</v>
       </c>
       <c r="D63" s="5">
@@ -10677,10 +10696,10 @@
       <c r="A64" s="4">
         <v>26</v>
       </c>
-      <c r="B64" s="73">
+      <c r="B64" s="72">
         <v>1021.8833401335173</v>
       </c>
-      <c r="C64" s="86">
+      <c r="C64" s="85">
         <v>356.01739712278402</v>
       </c>
       <c r="D64" s="5">
@@ -10691,10 +10710,10 @@
       <c r="A65" s="4">
         <v>27</v>
       </c>
-      <c r="B65" s="73">
+      <c r="B65" s="72">
         <v>1062.7186737388579</v>
       </c>
-      <c r="C65" s="86">
+      <c r="C65" s="85">
         <v>341.18333890933468</v>
       </c>
       <c r="D65" s="5">
@@ -10705,10 +10724,10 @@
       <c r="A66" s="4">
         <v>28</v>
       </c>
-      <c r="B66" s="73">
+      <c r="B66" s="72">
         <v>1103.5540073441985</v>
       </c>
-      <c r="C66" s="86">
+      <c r="C66" s="85">
         <v>326.34928069588534</v>
       </c>
       <c r="D66" s="5">
@@ -10719,241 +10738,241 @@
       <c r="A67" s="4">
         <v>29</v>
       </c>
-      <c r="B67" s="73">
+      <c r="B67" s="72">
         <v>1144.389340949539</v>
       </c>
-      <c r="C67" s="86">
+      <c r="C67" s="85">
         <v>311.515222482436</v>
       </c>
       <c r="D67" s="5">
         <v>2</v>
       </c>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="109"/>
-      <c r="I67" s="109"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="109"/>
-      <c r="L67" s="109"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="108"/>
+      <c r="L67" s="108"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="4">
         <v>30</v>
       </c>
-      <c r="B68" s="73">
+      <c r="B68" s="72">
         <v>1185.2246745548796</v>
       </c>
-      <c r="C68" s="86">
+      <c r="C68" s="85">
         <v>296.68116426898666</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
       </c>
-      <c r="F68" s="109"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="109"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="109"/>
-      <c r="L68" s="109"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="108"/>
+      <c r="K68" s="108"/>
+      <c r="L68" s="108"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="4">
         <v>31</v>
       </c>
-      <c r="B69" s="73">
+      <c r="B69" s="72">
         <v>1226.0600081602201</v>
       </c>
-      <c r="C69" s="86">
+      <c r="C69" s="85">
         <v>281.84710605553732</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
       </c>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="108"/>
+      <c r="L69" s="108"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="4">
         <v>32</v>
       </c>
-      <c r="B70" s="73">
+      <c r="B70" s="72">
         <v>1266.8953417655607</v>
       </c>
-      <c r="C70" s="86">
+      <c r="C70" s="85">
         <v>267.01304784208799</v>
       </c>
       <c r="D70" s="5">
         <v>2</v>
       </c>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="109"/>
-      <c r="L70" s="109"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="108"/>
+      <c r="K70" s="108"/>
+      <c r="L70" s="108"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="4">
         <v>33</v>
       </c>
-      <c r="B71" s="73">
+      <c r="B71" s="72">
         <v>1307.7306753709013</v>
       </c>
-      <c r="C71" s="86">
+      <c r="C71" s="85">
         <v>252.17898962863865</v>
       </c>
       <c r="D71" s="5">
         <v>2</v>
       </c>
-      <c r="F71" s="109"/>
-      <c r="G71" s="109"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="109"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="109"/>
-      <c r="L71" s="109"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
+      <c r="L71" s="108"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="4">
         <v>34</v>
       </c>
-      <c r="B72" s="73">
+      <c r="B72" s="72">
         <v>1348.5660089762418</v>
       </c>
-      <c r="C72" s="86">
+      <c r="C72" s="85">
         <v>237.34493141518931</v>
       </c>
       <c r="D72" s="5">
         <v>2</v>
       </c>
-      <c r="F72" s="109"/>
-      <c r="G72" s="109"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="109"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="109"/>
-      <c r="L72" s="109"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="108"/>
+      <c r="L72" s="108"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="4">
         <v>35</v>
       </c>
-      <c r="B73" s="87">
+      <c r="B73" s="86">
         <v>1389.4013425815824</v>
       </c>
-      <c r="C73" s="86">
+      <c r="C73" s="85">
         <v>222.51087320173997</v>
       </c>
       <c r="D73" s="5">
         <v>2</v>
       </c>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="109"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="109"/>
-      <c r="L73" s="109"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="108"/>
+      <c r="L73" s="108"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4">
         <v>36</v>
       </c>
-      <c r="B74" s="73">
+      <c r="B74" s="72">
         <v>1430.236676186923</v>
       </c>
-      <c r="C74" s="86">
+      <c r="C74" s="85">
         <v>207.67681498829063</v>
       </c>
       <c r="D74" s="5">
         <v>2</v>
       </c>
-      <c r="F74" s="109"/>
-      <c r="G74" s="109"/>
-      <c r="H74" s="109"/>
-      <c r="I74" s="109"/>
-      <c r="J74" s="109"/>
-      <c r="K74" s="109"/>
-      <c r="L74" s="109"/>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="108"/>
+      <c r="J74" s="108"/>
+      <c r="K74" s="108"/>
+      <c r="L74" s="108"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="4">
         <v>37</v>
       </c>
-      <c r="B75" s="73">
+      <c r="B75" s="72">
         <v>1471.0720097922635</v>
       </c>
-      <c r="C75" s="86">
+      <c r="C75" s="85">
         <v>192.84275677484129</v>
       </c>
       <c r="D75" s="5">
         <v>2</v>
       </c>
-      <c r="F75" s="109"/>
-      <c r="G75" s="109"/>
-      <c r="H75" s="109"/>
-      <c r="I75" s="109"/>
-      <c r="J75" s="109"/>
-      <c r="K75" s="109"/>
-      <c r="L75" s="109"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
+      <c r="I75" s="108"/>
+      <c r="J75" s="108"/>
+      <c r="K75" s="108"/>
+      <c r="L75" s="108"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="4">
         <v>38</v>
       </c>
-      <c r="B76" s="73">
+      <c r="B76" s="72">
         <v>1511.9073433976041</v>
       </c>
-      <c r="C76" s="86">
+      <c r="C76" s="85">
         <v>178.00869856139195</v>
       </c>
       <c r="D76" s="5">
         <v>2</v>
       </c>
-      <c r="F76" s="109"/>
-      <c r="G76" s="109"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="109"/>
-      <c r="J76" s="109"/>
-      <c r="K76" s="109"/>
-      <c r="L76" s="109"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
+      <c r="I76" s="108"/>
+      <c r="J76" s="108"/>
+      <c r="K76" s="108"/>
+      <c r="L76" s="108"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="4">
         <v>39</v>
       </c>
-      <c r="B77" s="73">
+      <c r="B77" s="72">
         <v>1552.7426770029447</v>
       </c>
-      <c r="C77" s="86">
+      <c r="C77" s="85">
         <v>163.17464034794261</v>
       </c>
       <c r="D77" s="5">
         <v>2</v>
       </c>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109"/>
-      <c r="H77" s="109"/>
-      <c r="I77" s="109"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="109"/>
-      <c r="L77" s="109"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="108"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="108"/>
+      <c r="L77" s="108"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="4">
         <v>40</v>
       </c>
-      <c r="B78" s="73">
+      <c r="B78" s="72">
         <v>1593.5780106082852</v>
       </c>
-      <c r="C78" s="86">
+      <c r="C78" s="85">
         <v>148.34058213449327</v>
       </c>
       <c r="D78" s="5">
@@ -10964,10 +10983,10 @@
       <c r="A79" s="4">
         <v>41</v>
       </c>
-      <c r="B79" s="73">
+      <c r="B79" s="72">
         <v>1634.4133442136258</v>
       </c>
-      <c r="C79" s="86">
+      <c r="C79" s="85">
         <v>133.50652392104394</v>
       </c>
       <c r="D79" s="5">
@@ -10978,10 +10997,10 @@
       <c r="A80" s="4">
         <v>42</v>
       </c>
-      <c r="B80" s="73">
+      <c r="B80" s="72">
         <v>1675.2486778189664</v>
       </c>
-      <c r="C80" s="86">
+      <c r="C80" s="85">
         <v>118.6724657075946</v>
       </c>
       <c r="D80" s="5">
@@ -10992,10 +11011,10 @@
       <c r="A81" s="4">
         <v>43</v>
       </c>
-      <c r="B81" s="73">
+      <c r="B81" s="72">
         <v>1716.0840114243069</v>
       </c>
-      <c r="C81" s="86">
+      <c r="C81" s="85">
         <v>103.83840749414526</v>
       </c>
       <c r="D81" s="5">
@@ -11006,10 +11025,10 @@
       <c r="A82" s="4">
         <v>44</v>
       </c>
-      <c r="B82" s="73">
+      <c r="B82" s="72">
         <v>1756.9193450296475</v>
       </c>
-      <c r="C82" s="86">
+      <c r="C82" s="85">
         <v>89.004349280695919</v>
       </c>
       <c r="D82" s="5">
@@ -11020,10 +11039,10 @@
       <c r="A83" s="4">
         <v>45</v>
       </c>
-      <c r="B83" s="73">
+      <c r="B83" s="72">
         <v>1797.7546786349881</v>
       </c>
-      <c r="C83" s="86">
+      <c r="C83" s="85">
         <v>74.17029106724658</v>
       </c>
       <c r="D83" s="5">
@@ -11034,10 +11053,10 @@
       <c r="A84" s="4">
         <v>46</v>
       </c>
-      <c r="B84" s="73">
+      <c r="B84" s="72">
         <v>1838.5900122403286</v>
       </c>
-      <c r="C84" s="86">
+      <c r="C84" s="85">
         <v>59.336232853797242</v>
       </c>
       <c r="D84" s="5">
@@ -11048,10 +11067,10 @@
       <c r="A85" s="4">
         <v>47</v>
       </c>
-      <c r="B85" s="73">
+      <c r="B85" s="72">
         <v>1879.4253458456692</v>
       </c>
-      <c r="C85" s="86">
+      <c r="C85" s="85">
         <v>44.502174640347903</v>
       </c>
       <c r="D85" s="5">
@@ -11062,10 +11081,10 @@
       <c r="A86" s="4">
         <v>48</v>
       </c>
-      <c r="B86" s="73">
+      <c r="B86" s="72">
         <v>1920.2606794510098</v>
       </c>
-      <c r="C86" s="86">
+      <c r="C86" s="85">
         <v>29.668116426898564</v>
       </c>
       <c r="D86" s="5">
@@ -11076,10 +11095,10 @@
       <c r="A87" s="4">
         <v>49</v>
       </c>
-      <c r="B87" s="73">
+      <c r="B87" s="72">
         <v>1961.0960130563503</v>
       </c>
-      <c r="C87" s="86">
+      <c r="C87" s="85">
         <v>14.834058213449225</v>
       </c>
       <c r="D87" s="5">
@@ -11090,10 +11109,10 @@
       <c r="A88" s="4">
         <v>50</v>
       </c>
-      <c r="B88" s="73">
+      <c r="B88" s="72">
         <v>2001.9313466616909</v>
       </c>
-      <c r="C88" s="86">
+      <c r="C88" s="85">
         <v>1.1368683772161603E-13</v>
       </c>
       <c r="D88" s="5">
@@ -11104,10 +11123,10 @@
       <c r="A89" s="4">
         <v>51</v>
       </c>
-      <c r="B89" s="73">
+      <c r="B89" s="72">
         <v>2042.7666802670315</v>
       </c>
-      <c r="C89" s="86">
+      <c r="C89" s="85">
         <v>14.834058213449453</v>
       </c>
       <c r="D89" s="5">
@@ -11118,10 +11137,10 @@
       <c r="A90" s="4">
         <v>52</v>
       </c>
-      <c r="B90" s="73">
+      <c r="B90" s="72">
         <v>2083.602013872372</v>
       </c>
-      <c r="C90" s="86">
+      <c r="C90" s="85">
         <v>29.668116426898791</v>
       </c>
       <c r="D90" s="5">
@@ -11132,10 +11151,10 @@
       <c r="A91" s="4">
         <v>53</v>
       </c>
-      <c r="B91" s="73">
+      <c r="B91" s="72">
         <v>2124.4373474777126</v>
       </c>
-      <c r="C91" s="86">
+      <c r="C91" s="85">
         <v>44.50217464034813</v>
       </c>
       <c r="D91" s="5">
@@ -11146,10 +11165,10 @@
       <c r="A92" s="4">
         <v>54</v>
       </c>
-      <c r="B92" s="73">
+      <c r="B92" s="72">
         <v>2165.2726810830532</v>
       </c>
-      <c r="C92" s="86">
+      <c r="C92" s="85">
         <v>59.336232853797469</v>
       </c>
       <c r="D92" s="5">
@@ -11160,10 +11179,10 @@
       <c r="A93" s="4">
         <v>55</v>
       </c>
-      <c r="B93" s="73">
+      <c r="B93" s="72">
         <v>2206.1080146883937</v>
       </c>
-      <c r="C93" s="86">
+      <c r="C93" s="85">
         <v>74.170291067246808</v>
       </c>
       <c r="D93" s="5">
@@ -11174,10 +11193,10 @@
       <c r="A94" s="4">
         <v>56</v>
       </c>
-      <c r="B94" s="73">
+      <c r="B94" s="72">
         <v>2246.9433482937343</v>
       </c>
-      <c r="C94" s="86">
+      <c r="C94" s="85">
         <v>89.004349280696147</v>
       </c>
       <c r="D94" s="5">
@@ -11188,10 +11207,10 @@
       <c r="A95" s="4">
         <v>57</v>
       </c>
-      <c r="B95" s="73">
+      <c r="B95" s="72">
         <v>2287.7786818990749</v>
       </c>
-      <c r="C95" s="86">
+      <c r="C95" s="85">
         <v>103.83840749414549</v>
       </c>
       <c r="D95" s="5">
@@ -11202,10 +11221,10 @@
       <c r="A96" s="4">
         <v>58</v>
       </c>
-      <c r="B96" s="73">
+      <c r="B96" s="72">
         <v>2328.6140155044154</v>
       </c>
-      <c r="C96" s="86">
+      <c r="C96" s="85">
         <v>118.67246570759482</v>
       </c>
       <c r="D96" s="5">
@@ -11216,10 +11235,10 @@
       <c r="A97" s="4">
         <v>59</v>
       </c>
-      <c r="B97" s="73">
+      <c r="B97" s="72">
         <v>2369.449349109756</v>
       </c>
-      <c r="C97" s="86">
+      <c r="C97" s="85">
         <v>133.50652392104416</v>
       </c>
       <c r="D97" s="5">
@@ -11230,10 +11249,10 @@
       <c r="A98" s="4">
         <v>60</v>
       </c>
-      <c r="B98" s="73">
+      <c r="B98" s="72">
         <v>2410.2846827150966</v>
       </c>
-      <c r="C98" s="86">
+      <c r="C98" s="85">
         <v>148.3405821344935</v>
       </c>
       <c r="D98" s="5">
@@ -11244,10 +11263,10 @@
       <c r="A99" s="4">
         <v>61</v>
       </c>
-      <c r="B99" s="73">
+      <c r="B99" s="72">
         <v>2451.1200163204371</v>
       </c>
-      <c r="C99" s="86">
+      <c r="C99" s="85">
         <v>163.17464034794284</v>
       </c>
       <c r="D99" s="5">
@@ -11258,10 +11277,10 @@
       <c r="A100" s="4">
         <v>62</v>
       </c>
-      <c r="B100" s="73">
+      <c r="B100" s="72">
         <v>2491.9553499257777</v>
       </c>
-      <c r="C100" s="86">
+      <c r="C100" s="85">
         <v>178.00869856139218</v>
       </c>
       <c r="D100" s="5">
@@ -11272,10 +11291,10 @@
       <c r="A101" s="4">
         <v>63</v>
       </c>
-      <c r="B101" s="73">
+      <c r="B101" s="72">
         <v>2532.7906835311182</v>
       </c>
-      <c r="C101" s="86">
+      <c r="C101" s="85">
         <v>192.84275677484152</v>
       </c>
       <c r="D101" s="5">
@@ -11286,10 +11305,10 @@
       <c r="A102" s="4">
         <v>64</v>
       </c>
-      <c r="B102" s="73">
+      <c r="B102" s="72">
         <v>2573.6260171364588</v>
       </c>
-      <c r="C102" s="86">
+      <c r="C102" s="85">
         <v>207.67681498829086</v>
       </c>
       <c r="D102" s="5">
@@ -11300,10 +11319,10 @@
       <c r="A103" s="4">
         <v>65</v>
       </c>
-      <c r="B103" s="73">
+      <c r="B103" s="72">
         <v>2614.4613507417994</v>
       </c>
-      <c r="C103" s="86">
+      <c r="C103" s="85">
         <v>222.5108732017402</v>
       </c>
       <c r="D103" s="5">
@@ -11314,13 +11333,13 @@
       <c r="A104" s="4">
         <v>66</v>
       </c>
-      <c r="B104" s="73">
+      <c r="B104" s="72">
         <v>2655.2966843471399</v>
       </c>
-      <c r="C104" s="86">
+      <c r="C104" s="85">
         <v>237.34493141518954</v>
       </c>
-      <c r="D104" s="88">
+      <c r="D104" s="87">
         <v>1.3</v>
       </c>
     </row>
@@ -11328,10 +11347,10 @@
       <c r="A105" s="4">
         <v>67</v>
       </c>
-      <c r="B105" s="73">
+      <c r="B105" s="72">
         <v>2696.1320179524805</v>
       </c>
-      <c r="C105" s="86">
+      <c r="C105" s="85">
         <v>252.17898962863887</v>
       </c>
       <c r="D105" s="5">
@@ -11342,10 +11361,10 @@
       <c r="A106" s="4">
         <v>68</v>
       </c>
-      <c r="B106" s="73">
+      <c r="B106" s="72">
         <v>2736.9673515578211</v>
       </c>
-      <c r="C106" s="86">
+      <c r="C106" s="85">
         <v>267.01304784208821</v>
       </c>
       <c r="D106" s="5">
@@ -11356,10 +11375,10 @@
       <c r="A107" s="4">
         <v>69</v>
       </c>
-      <c r="B107" s="73">
+      <c r="B107" s="72">
         <v>2777.8026851631616</v>
       </c>
-      <c r="C107" s="86">
+      <c r="C107" s="85">
         <v>281.84710605553755</v>
       </c>
       <c r="D107" s="5">
@@ -11370,10 +11389,10 @@
       <c r="A108" s="4">
         <v>70</v>
       </c>
-      <c r="B108" s="73">
+      <c r="B108" s="72">
         <v>2818.6380187685022</v>
       </c>
-      <c r="C108" s="86">
+      <c r="C108" s="85">
         <v>296.68116426898689</v>
       </c>
       <c r="D108" s="5">
@@ -11384,10 +11403,10 @@
       <c r="A109" s="4">
         <v>71</v>
       </c>
-      <c r="B109" s="73">
+      <c r="B109" s="72">
         <v>2859.4733523738428</v>
       </c>
-      <c r="C109" s="86">
+      <c r="C109" s="85">
         <v>311.515222482436</v>
       </c>
       <c r="D109" s="5">
@@ -11398,10 +11417,10 @@
       <c r="A110" s="4">
         <v>72</v>
       </c>
-      <c r="B110" s="73">
+      <c r="B110" s="72">
         <v>2900.3086859791833</v>
       </c>
-      <c r="C110" s="86">
+      <c r="C110" s="85">
         <v>326.34928069588602</v>
       </c>
       <c r="D110" s="5">
@@ -11412,10 +11431,10 @@
       <c r="A111" s="4">
         <v>73</v>
       </c>
-      <c r="B111" s="73">
+      <c r="B111" s="72">
         <v>2941.1440195845239</v>
       </c>
-      <c r="C111" s="86">
+      <c r="C111" s="85">
         <v>341.18333890933502</v>
       </c>
       <c r="D111" s="5">
@@ -11426,10 +11445,10 @@
       <c r="A112" s="4">
         <v>74</v>
       </c>
-      <c r="B112" s="73">
+      <c r="B112" s="72">
         <v>2981.9793531898645</v>
       </c>
-      <c r="C112" s="86">
+      <c r="C112" s="85">
         <v>356.01739712278402</v>
       </c>
       <c r="D112" s="5">
@@ -11440,10 +11459,10 @@
       <c r="A113" s="4">
         <v>75</v>
       </c>
-      <c r="B113" s="73">
+      <c r="B113" s="72">
         <v>3022.814686795205</v>
       </c>
-      <c r="C113" s="86">
+      <c r="C113" s="85">
         <v>370.85145533623398</v>
       </c>
       <c r="D113" s="5">
@@ -11454,10 +11473,10 @@
       <c r="A114" s="4">
         <v>76</v>
       </c>
-      <c r="B114" s="73">
+      <c r="B114" s="72">
         <v>3063.6500204005456</v>
       </c>
-      <c r="C114" s="86">
+      <c r="C114" s="85">
         <v>385.68551354968298</v>
       </c>
       <c r="D114" s="5">
@@ -11468,10 +11487,10 @@
       <c r="A115" s="4">
         <v>77</v>
       </c>
-      <c r="B115" s="73">
+      <c r="B115" s="72">
         <v>3104.4853540058862</v>
       </c>
-      <c r="C115" s="86">
+      <c r="C115" s="85">
         <v>400.519571763133</v>
       </c>
       <c r="D115" s="5">
@@ -11482,10 +11501,10 @@
       <c r="A116" s="4">
         <v>78</v>
       </c>
-      <c r="B116" s="73">
+      <c r="B116" s="72">
         <v>3145.3206876112267</v>
       </c>
-      <c r="C116" s="86">
+      <c r="C116" s="85">
         <v>415.353629976582</v>
       </c>
       <c r="D116" s="5">
@@ -11496,10 +11515,10 @@
       <c r="A117" s="4">
         <v>79</v>
       </c>
-      <c r="B117" s="73">
+      <c r="B117" s="72">
         <v>3186.1560212165673</v>
       </c>
-      <c r="C117" s="86">
+      <c r="C117" s="85">
         <v>430.187688190031</v>
       </c>
       <c r="D117" s="5">
@@ -11510,10 +11529,10 @@
       <c r="A118" s="4">
         <v>80</v>
       </c>
-      <c r="B118" s="73">
+      <c r="B118" s="72">
         <v>3226.9913548219079</v>
       </c>
-      <c r="C118" s="86">
+      <c r="C118" s="85">
         <v>445.02174640348102</v>
       </c>
       <c r="D118" s="5">
@@ -11524,10 +11543,10 @@
       <c r="A119" s="4">
         <v>81</v>
       </c>
-      <c r="B119" s="73">
+      <c r="B119" s="72">
         <v>3267.8266884272484</v>
       </c>
-      <c r="C119" s="86">
+      <c r="C119" s="85">
         <v>459.85580461693002</v>
       </c>
       <c r="D119" s="5">
@@ -11538,10 +11557,10 @@
       <c r="A120" s="4">
         <v>82</v>
       </c>
-      <c r="B120" s="73">
+      <c r="B120" s="72">
         <v>3308.662022032589</v>
       </c>
-      <c r="C120" s="86">
+      <c r="C120" s="85">
         <v>474.68986283037901</v>
       </c>
       <c r="D120" s="5">
@@ -11552,10 +11571,10 @@
       <c r="A121" s="4">
         <v>83</v>
       </c>
-      <c r="B121" s="73">
+      <c r="B121" s="72">
         <v>3349.4973556379296</v>
       </c>
-      <c r="C121" s="86">
+      <c r="C121" s="85">
         <v>489.52392104382898</v>
       </c>
       <c r="D121" s="5">
@@ -11566,10 +11585,10 @@
       <c r="A122" s="4">
         <v>84</v>
       </c>
-      <c r="B122" s="73">
+      <c r="B122" s="72">
         <v>3390.3326892432701</v>
       </c>
-      <c r="C122" s="86">
+      <c r="C122" s="85">
         <v>504.35797925727798</v>
       </c>
       <c r="D122" s="5">
@@ -11580,10 +11599,10 @@
       <c r="A123" s="4">
         <v>85</v>
       </c>
-      <c r="B123" s="73">
+      <c r="B123" s="72">
         <v>3431.1680228486107</v>
       </c>
-      <c r="C123" s="86">
+      <c r="C123" s="85">
         <v>519.19203747072697</v>
       </c>
       <c r="D123" s="5">
@@ -11594,10 +11613,10 @@
       <c r="A124" s="4">
         <v>86</v>
       </c>
-      <c r="B124" s="73">
+      <c r="B124" s="72">
         <v>3472.0033564539513</v>
       </c>
-      <c r="C124" s="86">
+      <c r="C124" s="85">
         <v>534.02609568417699</v>
       </c>
       <c r="D124" s="5">
@@ -11608,10 +11627,10 @@
       <c r="A125" s="4">
         <v>87</v>
       </c>
-      <c r="B125" s="73">
+      <c r="B125" s="72">
         <v>3512.8386900592918</v>
       </c>
-      <c r="C125" s="86">
+      <c r="C125" s="85">
         <v>548.86015389762599</v>
       </c>
       <c r="D125" s="5">
@@ -11622,10 +11641,10 @@
       <c r="A126" s="4">
         <v>88</v>
       </c>
-      <c r="B126" s="73">
+      <c r="B126" s="72">
         <v>3553.6740236646324</v>
       </c>
-      <c r="C126" s="86">
+      <c r="C126" s="85">
         <v>563.69421211107499</v>
       </c>
       <c r="D126" s="5">
@@ -11636,10 +11655,10 @@
       <c r="A127" s="4">
         <v>89</v>
       </c>
-      <c r="B127" s="73">
+      <c r="B127" s="72">
         <v>3594.509357269973</v>
       </c>
-      <c r="C127" s="86">
+      <c r="C127" s="85">
         <v>578.52827032452501</v>
       </c>
       <c r="D127" s="5">
@@ -11650,10 +11669,10 @@
       <c r="A128" s="4">
         <v>90</v>
       </c>
-      <c r="B128" s="73">
+      <c r="B128" s="72">
         <v>3635.3446908753135</v>
       </c>
-      <c r="C128" s="86">
+      <c r="C128" s="85">
         <v>593.36232853797401</v>
       </c>
       <c r="D128" s="5">
@@ -11664,10 +11683,10 @@
       <c r="A129" s="4">
         <v>91</v>
       </c>
-      <c r="B129" s="73">
+      <c r="B129" s="72">
         <v>3676.1800244806541</v>
       </c>
-      <c r="C129" s="86">
+      <c r="C129" s="85">
         <v>608.19638675142301</v>
       </c>
       <c r="D129" s="5">
@@ -11678,10 +11697,10 @@
       <c r="A130" s="4">
         <v>92</v>
       </c>
-      <c r="B130" s="73">
+      <c r="B130" s="72">
         <v>3717.0153580859946</v>
       </c>
-      <c r="C130" s="86">
+      <c r="C130" s="85">
         <v>623.03044496487303</v>
       </c>
       <c r="D130" s="5">
@@ -11692,10 +11711,10 @@
       <c r="A131" s="4">
         <v>93</v>
       </c>
-      <c r="B131" s="73">
+      <c r="B131" s="72">
         <v>3757.8506916913352</v>
       </c>
-      <c r="C131" s="86">
+      <c r="C131" s="85">
         <v>637.86450317832202</v>
       </c>
       <c r="D131" s="5">
@@ -11706,10 +11725,10 @@
       <c r="A132" s="4">
         <v>94</v>
       </c>
-      <c r="B132" s="73">
+      <c r="B132" s="72">
         <v>3798.6860252966758</v>
       </c>
-      <c r="C132" s="86">
+      <c r="C132" s="85">
         <v>652.69856139177102</v>
       </c>
       <c r="D132" s="5">
@@ -11720,10 +11739,10 @@
       <c r="A133" s="4">
         <v>95</v>
       </c>
-      <c r="B133" s="73">
+      <c r="B133" s="72">
         <v>3839.5213589020163</v>
       </c>
-      <c r="C133" s="86">
+      <c r="C133" s="85">
         <v>667.53261960522104</v>
       </c>
       <c r="D133" s="5">
@@ -11734,10 +11753,10 @@
       <c r="A134" s="4">
         <v>96</v>
       </c>
-      <c r="B134" s="73">
+      <c r="B134" s="72">
         <v>3880.3566925073569</v>
       </c>
-      <c r="C134" s="86">
+      <c r="C134" s="85">
         <v>682.36667781867004</v>
       </c>
       <c r="D134" s="5">
@@ -11748,10 +11767,10 @@
       <c r="A135" s="4">
         <v>97</v>
       </c>
-      <c r="B135" s="73">
+      <c r="B135" s="72">
         <v>3921.1920261126975</v>
       </c>
-      <c r="C135" s="86">
+      <c r="C135" s="85">
         <v>697.20073603211904</v>
       </c>
       <c r="D135" s="5">
@@ -11762,10 +11781,10 @@
       <c r="A136" s="4">
         <v>98</v>
       </c>
-      <c r="B136" s="73">
+      <c r="B136" s="72">
         <v>3962.027359718038</v>
       </c>
-      <c r="C136" s="86">
+      <c r="C136" s="85">
         <v>712.03479424556804</v>
       </c>
       <c r="D136" s="5">
@@ -11776,24 +11795,24 @@
       <c r="A137" s="4">
         <v>99</v>
       </c>
-      <c r="B137" s="73">
+      <c r="B137" s="72">
         <v>4002.8626933233786</v>
       </c>
-      <c r="C137" s="86">
+      <c r="C137" s="85">
         <v>726.86885245901703</v>
       </c>
       <c r="D137" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="13.5" thickBot="1">
+    <row r="138" spans="1:4" ht="14" thickBot="1">
       <c r="A138" s="31">
         <v>100</v>
       </c>
-      <c r="B138" s="74">
+      <c r="B138" s="73">
         <v>4043.6980269287192</v>
       </c>
-      <c r="C138" s="89">
+      <c r="C138" s="88">
         <v>741.70291067246797</v>
       </c>
       <c r="D138" s="7">
@@ -11802,9 +11821,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G29:J34"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:J5"/>
+    <mergeCell ref="L19:Q26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H7:I27">
@@ -11827,15 +11846,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>161925</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:colOff>317500</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>139700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11849,31 +11868,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Worksheet____4"/>
   <dimension ref="A1:AC115"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75">
+    <row r="1" spans="1:29" ht="18">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -11927,7 +11946,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="38.25">
+    <row r="4" spans="1:29" ht="42">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11937,7 +11956,7 @@
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="122"/>
       <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
@@ -11982,7 +12001,7 @@
         <f ca="1">2*ABS(N7)/(ABS(B7)+I5)</f>
         <v>4.2843138169714883E-16</v>
       </c>
-      <c r="L5" s="130">
+      <c r="L5" s="119">
         <f ca="1">M5*(B7-2*B7*sheet1!E5+2*sheet1!D5*sheet1!E5)/B7^(2*sheet1!E5+1)</f>
         <v>-3.7849397944550842E+17</v>
       </c>
@@ -12044,7 +12063,7 @@
     <row r="7" spans="1:29" ht="54.75" customHeight="1">
       <c r="A7" s="14">
         <f ca="1">IF(H5=1,0,A7+1)</f>
-        <v>6300</v>
+        <v>1600</v>
       </c>
       <c r="B7" s="15">
         <f ca="1">IF(A7=0,IF(J5&lt;=0,I5,J5),IF(ABS(L7)&lt;=I5,B7,IF((B7-(L7/M7))&lt;0,I5,B7-(L7/M7))))</f>
@@ -12090,7 +12109,7 @@
         <f ca="1">M5*(B7-2*sheet1!E5*B7+2*sheet1!D5*sheet1!E5)/B7^(2*sheet1!E5+1)</f>
         <v>3.7849397944550842E+17</v>
       </c>
-      <c r="M7" s="130">
+      <c r="M7" s="119">
         <f ca="1">(M5*(1-2*sheet1!E5)*B7^(2*sheet1!E5+1)-M5*(1+2*sheet1!E5)*(B7-2*sheet1!E5*B7+2*sheet1!E5*sheet1!D5)*B7^(2*sheet1!E5))/B7^(4*sheet1!E5+2)</f>
         <v>-8.825890134853505E+29</v>
       </c>
@@ -12099,8 +12118,8 @@
         <v>-4.288451064565521E-13</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="13.5" thickBot="1"/>
-    <row r="9" spans="1:29" ht="26.25" thickBot="1">
+    <row r="8" spans="1:29" ht="14" thickBot="1"/>
+    <row r="9" spans="1:29" ht="29" thickBot="1">
       <c r="G9" s="49" t="s">
         <v>12</v>
       </c>
@@ -14916,9 +14935,9 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>895350</xdr:colOff>
+                    <xdr:colOff>901700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:rowOff>215900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14932,15 +14951,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:rowOff>215900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14954,13 +14973,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>885825</xdr:colOff>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14976,29 +14995,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:H126"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75">
+    <row r="1" spans="1:14" ht="18">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -15065,7 +15084,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="13.5" thickBot="1">
+    <row r="10" spans="1:14" ht="14" thickBot="1">
       <c r="A10" s="37" t="s">
         <v>53</v>
       </c>
@@ -15084,34 +15103,34 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="102" t="s">
+      <c r="G11" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="101" t="s">
+      <c r="H11" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="102" t="s">
         <v>71</v>
       </c>
       <c r="K11" s="8"/>
@@ -15144,11 +15163,11 @@
       <c r="H12" s="59">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="84">
         <f>ABS(H12-B12)</f>
         <v>1882.8015580947417</v>
       </c>
-      <c r="J12" s="104">
+      <c r="J12" s="103">
         <f>-LN(G12)</f>
         <v>2.3025850929940455</v>
       </c>
@@ -15182,11 +15201,11 @@
       <c r="H13" s="43">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="85">
         <f t="shared" ref="I13:I22" si="0">ABS(H13-B13)</f>
         <v>1997.7641796588291</v>
       </c>
-      <c r="J13" s="105">
+      <c r="J13" s="104">
         <f t="shared" ref="J13:J22" si="1">-LN(G13)</f>
         <v>4.6051701859880909</v>
       </c>
@@ -15220,11 +15239,11 @@
       <c r="H14" s="43">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="85">
         <f t="shared" si="0"/>
         <v>2000.9003294936449</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="104">
         <f t="shared" si="1"/>
         <v>6.9077552789821368</v>
       </c>
@@ -15258,11 +15277,11 @@
       <c r="H15" s="43">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="85">
         <f t="shared" si="0"/>
         <v>2000.9003294936449</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="104">
         <f t="shared" si="1"/>
         <v>9.2103403719761818</v>
       </c>
@@ -15296,11 +15315,11 @@
       <c r="H16" s="43">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I16" s="86">
+      <c r="I16" s="85">
         <f t="shared" si="0"/>
         <v>2000.9313436624163</v>
       </c>
-      <c r="J16" s="105">
+      <c r="J16" s="104">
         <f t="shared" si="1"/>
         <v>11.512925464970229</v>
       </c>
@@ -15334,11 +15353,11 @@
       <c r="H17" s="43">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="85">
         <f t="shared" si="0"/>
         <v>2000.9313436624163</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="104">
         <f t="shared" si="1"/>
         <v>13.815510557964274</v>
       </c>
@@ -15372,11 +15391,11 @@
       <c r="H18" s="43">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I18" s="86">
+      <c r="I18" s="85">
         <f t="shared" si="0"/>
         <v>2000.9313436624163</v>
       </c>
-      <c r="J18" s="105">
+      <c r="J18" s="104">
         <f t="shared" si="1"/>
         <v>16.11809565095832</v>
       </c>
@@ -15410,11 +15429,11 @@
       <c r="H19" s="43">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I19" s="86">
+      <c r="I19" s="85">
         <f t="shared" si="0"/>
         <v>2000.9313436624163</v>
       </c>
-      <c r="J19" s="105">
+      <c r="J19" s="104">
         <f t="shared" si="1"/>
         <v>18.420680743952364</v>
       </c>
@@ -15448,11 +15467,11 @@
       <c r="H20" s="43">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I20" s="86">
+      <c r="I20" s="85">
         <f t="shared" si="0"/>
         <v>2000.9313466616877</v>
       </c>
-      <c r="J20" s="105">
+      <c r="J20" s="104">
         <f t="shared" si="1"/>
         <v>20.72326583694641</v>
       </c>
@@ -15486,11 +15505,11 @@
       <c r="H21" s="43">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I21" s="86">
+      <c r="I21" s="85">
         <f t="shared" si="0"/>
         <v>2000.9313466616877</v>
       </c>
-      <c r="J21" s="105">
+      <c r="J21" s="104">
         <f t="shared" si="1"/>
         <v>23.025850929940457</v>
       </c>
@@ -15499,7 +15518,7 @@
       <c r="M21" s="19"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="13.5" thickBot="1">
+    <row r="22" spans="1:14" ht="14" thickBot="1">
       <c r="A22" s="45">
         <v>11</v>
       </c>
@@ -15524,11 +15543,11 @@
       <c r="H22" s="47">
         <v>1.0000000000031264</v>
       </c>
-      <c r="I22" s="89">
+      <c r="I22" s="88">
         <f t="shared" si="0"/>
         <v>2000.9313466616877</v>
       </c>
-      <c r="J22" s="106">
+      <c r="J22" s="105">
         <f t="shared" si="1"/>
         <v>25.328436022934504</v>
       </c>
@@ -15538,22 +15557,22 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="80"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="13.5" thickBot="1">
+    <row r="24" spans="1:14" ht="14" thickBot="1">
       <c r="A24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -15567,7 +15586,7 @@
       <c r="M24" s="19"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="13.5" thickBot="1">
+    <row r="25" spans="1:14" ht="14" thickBot="1">
       <c r="A25" s="37" t="s">
         <v>68</v>
       </c>
@@ -15577,10 +15596,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="82">
+      <c r="H25" s="81">
         <v>40.83533360534058</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="76">
         <f>H86-H27</f>
         <v>2409.2846827150934</v>
       </c>
@@ -15590,7 +15609,7 @@
       <c r="M25" s="19"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="51.75" thickBot="1">
+    <row r="26" spans="1:14" ht="57" thickBot="1">
       <c r="A26" s="55" t="s">
         <v>4</v>
       </c>
@@ -15624,7 +15643,7 @@
       <c r="M26" s="19"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="13.5" thickBot="1">
+    <row r="27" spans="1:14" ht="14" thickBot="1">
       <c r="A27" s="57">
         <v>1</v>
       </c>
@@ -15646,7 +15665,7 @@
       <c r="G27" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="71">
         <f t="shared" ref="H27:H75" si="2">H28-$H$25</f>
         <v>1.0000000000031264</v>
       </c>
@@ -15660,7 +15679,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="13.5" thickBot="1">
+    <row r="28" spans="1:14" ht="14" thickBot="1">
       <c r="A28" s="41">
         <v>2</v>
       </c>
@@ -15682,7 +15701,7 @@
       <c r="G28" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H28" s="73">
+      <c r="H28" s="72">
         <f t="shared" si="2"/>
         <v>41.835333605343706</v>
       </c>
@@ -15696,7 +15715,7 @@
       <c r="M28" s="19"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="13.5" thickBot="1">
+    <row r="29" spans="1:14" ht="14" thickBot="1">
       <c r="A29" s="41">
         <v>3</v>
       </c>
@@ -15718,7 +15737,7 @@
       <c r="G29" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="72">
         <f t="shared" si="2"/>
         <v>82.670667210684286</v>
       </c>
@@ -15732,7 +15751,7 @@
       <c r="M29" s="19"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="13.5" thickBot="1">
+    <row r="30" spans="1:14" ht="14" thickBot="1">
       <c r="A30" s="41">
         <v>4</v>
       </c>
@@ -15754,7 +15773,7 @@
       <c r="G30" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H30" s="73">
+      <c r="H30" s="72">
         <f t="shared" si="2"/>
         <v>123.50600081602487</v>
       </c>
@@ -15768,7 +15787,7 @@
       <c r="M30" s="19"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1">
+    <row r="31" spans="1:14" ht="14" thickBot="1">
       <c r="A31" s="41">
         <v>5</v>
       </c>
@@ -15790,7 +15809,7 @@
       <c r="G31" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H31" s="73">
+      <c r="H31" s="72">
         <f t="shared" si="2"/>
         <v>164.34133442136545</v>
       </c>
@@ -15804,7 +15823,7 @@
       <c r="M31" s="19"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1">
+    <row r="32" spans="1:14" ht="14" thickBot="1">
       <c r="A32" s="41">
         <v>6</v>
       </c>
@@ -15826,7 +15845,7 @@
       <c r="G32" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="72">
         <f t="shared" si="2"/>
         <v>205.17666802670601</v>
       </c>
@@ -15840,7 +15859,7 @@
       <c r="M32" s="19"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1">
+    <row r="33" spans="1:14" ht="14" thickBot="1">
       <c r="A33" s="41">
         <v>7</v>
       </c>
@@ -15862,7 +15881,7 @@
       <c r="G33" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H33" s="73">
+      <c r="H33" s="72">
         <f t="shared" si="2"/>
         <v>246.01200163204658</v>
       </c>
@@ -15876,7 +15895,7 @@
       <c r="M33" s="19"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="13.5" thickBot="1">
+    <row r="34" spans="1:14" ht="14" thickBot="1">
       <c r="A34" s="41">
         <v>8</v>
       </c>
@@ -15898,7 +15917,7 @@
       <c r="G34" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H34" s="73">
+      <c r="H34" s="72">
         <f t="shared" si="2"/>
         <v>286.84733523738714</v>
       </c>
@@ -15912,7 +15931,7 @@
       <c r="M34" s="19"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="13.5" thickBot="1">
+    <row r="35" spans="1:14" ht="14" thickBot="1">
       <c r="A35" s="41">
         <v>9</v>
       </c>
@@ -15934,7 +15953,7 @@
       <c r="G35" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H35" s="73">
+      <c r="H35" s="72">
         <f t="shared" si="2"/>
         <v>327.68266884272771</v>
       </c>
@@ -15948,7 +15967,7 @@
       <c r="M35" s="19"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" ht="13.5" thickBot="1">
+    <row r="36" spans="1:14" ht="14" thickBot="1">
       <c r="A36" s="41">
         <v>10</v>
       </c>
@@ -15970,7 +15989,7 @@
       <c r="G36" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H36" s="73">
+      <c r="H36" s="72">
         <f t="shared" si="2"/>
         <v>368.51800244806827</v>
       </c>
@@ -15984,7 +16003,7 @@
       <c r="M36" s="19"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" ht="13.5" thickBot="1">
+    <row r="37" spans="1:14" ht="14" thickBot="1">
       <c r="A37" s="41">
         <v>11</v>
       </c>
@@ -16006,7 +16025,7 @@
       <c r="G37" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H37" s="73">
+      <c r="H37" s="72">
         <f t="shared" si="2"/>
         <v>409.35333605340884</v>
       </c>
@@ -16020,7 +16039,7 @@
       <c r="M37" s="19"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" ht="13.5" thickBot="1">
+    <row r="38" spans="1:14" ht="14" thickBot="1">
       <c r="A38" s="41">
         <v>12</v>
       </c>
@@ -16042,7 +16061,7 @@
       <c r="G38" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="72">
         <f t="shared" si="2"/>
         <v>450.1886696587494</v>
       </c>
@@ -16056,7 +16075,7 @@
       <c r="M38" s="19"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" ht="13.5" thickBot="1">
+    <row r="39" spans="1:14" ht="14" thickBot="1">
       <c r="A39" s="41">
         <v>13</v>
       </c>
@@ -16078,7 +16097,7 @@
       <c r="G39" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H39" s="73">
+      <c r="H39" s="72">
         <f t="shared" si="2"/>
         <v>491.02400326408997</v>
       </c>
@@ -16092,7 +16111,7 @@
       <c r="M39" s="19"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" ht="13.5" thickBot="1">
+    <row r="40" spans="1:14" ht="14" thickBot="1">
       <c r="A40" s="41">
         <v>14</v>
       </c>
@@ -16114,7 +16133,7 @@
       <c r="G40" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H40" s="73">
+      <c r="H40" s="72">
         <f t="shared" si="2"/>
         <v>531.85933686943054</v>
       </c>
@@ -16128,7 +16147,7 @@
       <c r="M40" s="19"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" ht="13.5" thickBot="1">
+    <row r="41" spans="1:14" ht="14" thickBot="1">
       <c r="A41" s="41">
         <v>15</v>
       </c>
@@ -16150,7 +16169,7 @@
       <c r="G41" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H41" s="73">
+      <c r="H41" s="72">
         <f t="shared" si="2"/>
         <v>572.6946704747711</v>
       </c>
@@ -16164,7 +16183,7 @@
       <c r="M41" s="19"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" ht="13.5" thickBot="1">
+    <row r="42" spans="1:14" ht="14" thickBot="1">
       <c r="A42" s="41">
         <v>16</v>
       </c>
@@ -16186,7 +16205,7 @@
       <c r="G42" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H42" s="73">
+      <c r="H42" s="72">
         <f t="shared" si="2"/>
         <v>613.53000408011167</v>
       </c>
@@ -16200,7 +16219,7 @@
       <c r="M42" s="19"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1">
+    <row r="43" spans="1:14" ht="14" thickBot="1">
       <c r="A43" s="41">
         <v>17</v>
       </c>
@@ -16222,7 +16241,7 @@
       <c r="G43" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H43" s="73">
+      <c r="H43" s="72">
         <f t="shared" si="2"/>
         <v>654.36533768545223</v>
       </c>
@@ -16236,7 +16255,7 @@
       <c r="M43" s="19"/>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" ht="13.5" thickBot="1">
+    <row r="44" spans="1:14" ht="14" thickBot="1">
       <c r="A44" s="41">
         <v>18</v>
       </c>
@@ -16258,7 +16277,7 @@
       <c r="G44" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H44" s="73">
+      <c r="H44" s="72">
         <f t="shared" si="2"/>
         <v>695.2006712907928</v>
       </c>
@@ -16272,7 +16291,7 @@
       <c r="M44" s="19"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" ht="13.5" thickBot="1">
+    <row r="45" spans="1:14" ht="14" thickBot="1">
       <c r="A45" s="41">
         <v>19</v>
       </c>
@@ -16294,7 +16313,7 @@
       <c r="G45" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H45" s="73">
+      <c r="H45" s="72">
         <f t="shared" si="2"/>
         <v>736.03600489613336</v>
       </c>
@@ -16308,7 +16327,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" ht="13.5" thickBot="1">
+    <row r="46" spans="1:14" ht="14" thickBot="1">
       <c r="A46" s="41">
         <v>20</v>
       </c>
@@ -16330,7 +16349,7 @@
       <c r="G46" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H46" s="73">
+      <c r="H46" s="72">
         <f t="shared" si="2"/>
         <v>776.87133850147393</v>
       </c>
@@ -16344,7 +16363,7 @@
       <c r="M46" s="19"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" ht="13.5" thickBot="1">
+    <row r="47" spans="1:14" ht="14" thickBot="1">
       <c r="A47" s="41">
         <v>21</v>
       </c>
@@ -16366,7 +16385,7 @@
       <c r="G47" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="72">
         <f t="shared" si="2"/>
         <v>817.70667210681449</v>
       </c>
@@ -16380,7 +16399,7 @@
       <c r="M47" s="19"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" ht="13.5" thickBot="1">
+    <row r="48" spans="1:14" ht="14" thickBot="1">
       <c r="A48" s="41">
         <v>22</v>
       </c>
@@ -16402,7 +16421,7 @@
       <c r="G48" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="72">
         <f t="shared" si="2"/>
         <v>858.54200571215506</v>
       </c>
@@ -16416,7 +16435,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" ht="13.5" thickBot="1">
+    <row r="49" spans="1:14" ht="14" thickBot="1">
       <c r="A49" s="41">
         <v>23</v>
       </c>
@@ -16438,7 +16457,7 @@
       <c r="G49" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H49" s="73">
+      <c r="H49" s="72">
         <f t="shared" si="2"/>
         <v>899.37733931749563</v>
       </c>
@@ -16452,7 +16471,7 @@
       <c r="M49" s="19"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" ht="13.5" thickBot="1">
+    <row r="50" spans="1:14" ht="14" thickBot="1">
       <c r="A50" s="41">
         <v>24</v>
       </c>
@@ -16474,7 +16493,7 @@
       <c r="G50" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H50" s="73">
+      <c r="H50" s="72">
         <f t="shared" si="2"/>
         <v>940.21267292283619</v>
       </c>
@@ -16488,7 +16507,7 @@
       <c r="M50" s="19"/>
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="1:14" ht="13.5" thickBot="1">
+    <row r="51" spans="1:14" ht="14" thickBot="1">
       <c r="A51" s="41">
         <v>25</v>
       </c>
@@ -16510,7 +16529,7 @@
       <c r="G51" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H51" s="73">
+      <c r="H51" s="72">
         <f t="shared" si="2"/>
         <v>981.04800652817676</v>
       </c>
@@ -16524,7 +16543,7 @@
       <c r="M51" s="19"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14" ht="13.5" thickBot="1">
+    <row r="52" spans="1:14" ht="14" thickBot="1">
       <c r="A52" s="41">
         <v>26</v>
       </c>
@@ -16546,7 +16565,7 @@
       <c r="G52" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H52" s="73">
+      <c r="H52" s="72">
         <f t="shared" si="2"/>
         <v>1021.8833401335173</v>
       </c>
@@ -16560,7 +16579,7 @@
       <c r="M52" s="19"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="1:14" ht="13.5" thickBot="1">
+    <row r="53" spans="1:14" ht="14" thickBot="1">
       <c r="A53" s="41">
         <v>27</v>
       </c>
@@ -16582,7 +16601,7 @@
       <c r="G53" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H53" s="73">
+      <c r="H53" s="72">
         <f t="shared" si="2"/>
         <v>1062.7186737388579</v>
       </c>
@@ -16596,7 +16615,7 @@
       <c r="M53" s="19"/>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="1:14" ht="13.5" thickBot="1">
+    <row r="54" spans="1:14" ht="14" thickBot="1">
       <c r="A54" s="41">
         <v>28</v>
       </c>
@@ -16618,7 +16637,7 @@
       <c r="G54" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="72">
         <f t="shared" si="2"/>
         <v>1103.5540073441985</v>
       </c>
@@ -16654,7 +16673,7 @@
       <c r="G55" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H55" s="73">
+      <c r="H55" s="72">
         <f t="shared" si="2"/>
         <v>1144.389340949539</v>
       </c>
@@ -16690,7 +16709,7 @@
       <c r="G56" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H56" s="73">
+      <c r="H56" s="72">
         <f t="shared" si="2"/>
         <v>1185.2246745548796</v>
       </c>
@@ -16726,7 +16745,7 @@
       <c r="G57" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H57" s="73">
+      <c r="H57" s="72">
         <f t="shared" si="2"/>
         <v>1226.0600081602201</v>
       </c>
@@ -16762,7 +16781,7 @@
       <c r="G58" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H58" s="73">
+      <c r="H58" s="72">
         <f t="shared" si="2"/>
         <v>1266.8953417655607</v>
       </c>
@@ -16798,7 +16817,7 @@
       <c r="G59" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H59" s="73">
+      <c r="H59" s="72">
         <f t="shared" si="2"/>
         <v>1307.7306753709013</v>
       </c>
@@ -16834,7 +16853,7 @@
       <c r="G60" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H60" s="73">
+      <c r="H60" s="72">
         <f t="shared" si="2"/>
         <v>1348.5660089762418</v>
       </c>
@@ -16870,7 +16889,7 @@
       <c r="G61" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H61" s="73">
+      <c r="H61" s="72">
         <f t="shared" si="2"/>
         <v>1389.4013425815824</v>
       </c>
@@ -16906,7 +16925,7 @@
       <c r="G62" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H62" s="73">
+      <c r="H62" s="72">
         <f t="shared" si="2"/>
         <v>1430.236676186923</v>
       </c>
@@ -16942,7 +16961,7 @@
       <c r="G63" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H63" s="73">
+      <c r="H63" s="72">
         <f t="shared" si="2"/>
         <v>1471.0720097922635</v>
       </c>
@@ -16978,7 +16997,7 @@
       <c r="G64" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H64" s="73">
+      <c r="H64" s="72">
         <f t="shared" si="2"/>
         <v>1511.9073433976041</v>
       </c>
@@ -17014,7 +17033,7 @@
       <c r="G65" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H65" s="73">
+      <c r="H65" s="72">
         <f t="shared" si="2"/>
         <v>1552.7426770029447</v>
       </c>
@@ -17050,7 +17069,7 @@
       <c r="G66" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H66" s="73">
+      <c r="H66" s="72">
         <f t="shared" si="2"/>
         <v>1593.5780106082852</v>
       </c>
@@ -17064,7 +17083,7 @@
       <c r="M66" s="19"/>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="1:14" ht="13.5" thickBot="1">
+    <row r="67" spans="1:14" ht="14" thickBot="1">
       <c r="A67" s="41">
         <v>41</v>
       </c>
@@ -17086,7 +17105,7 @@
       <c r="G67" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H67" s="73">
+      <c r="H67" s="72">
         <f t="shared" si="2"/>
         <v>1634.4133442136258</v>
       </c>
@@ -17100,7 +17119,7 @@
       <c r="M67" s="19"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" ht="13.5" thickBot="1">
+    <row r="68" spans="1:14" ht="14" thickBot="1">
       <c r="A68" s="41">
         <v>42</v>
       </c>
@@ -17122,7 +17141,7 @@
       <c r="G68" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H68" s="73">
+      <c r="H68" s="72">
         <f t="shared" si="2"/>
         <v>1675.2486778189664</v>
       </c>
@@ -17136,7 +17155,7 @@
       <c r="M68" s="19"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" ht="13.5" thickBot="1">
+    <row r="69" spans="1:14" ht="14" thickBot="1">
       <c r="A69" s="41">
         <v>43</v>
       </c>
@@ -17158,7 +17177,7 @@
       <c r="G69" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H69" s="73">
+      <c r="H69" s="72">
         <f t="shared" si="2"/>
         <v>1716.0840114243069</v>
       </c>
@@ -17172,7 +17191,7 @@
       <c r="M69" s="19"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" ht="13.5" thickBot="1">
+    <row r="70" spans="1:14" ht="14" thickBot="1">
       <c r="A70" s="41">
         <v>44</v>
       </c>
@@ -17194,7 +17213,7 @@
       <c r="G70" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H70" s="73">
+      <c r="H70" s="72">
         <f t="shared" si="2"/>
         <v>1756.9193450296475</v>
       </c>
@@ -17208,7 +17227,7 @@
       <c r="M70" s="19"/>
       <c r="N70" s="8"/>
     </row>
-    <row r="71" spans="1:14" ht="13.5" thickBot="1">
+    <row r="71" spans="1:14" ht="14" thickBot="1">
       <c r="A71" s="41">
         <v>45</v>
       </c>
@@ -17230,7 +17249,7 @@
       <c r="G71" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H71" s="73">
+      <c r="H71" s="72">
         <f t="shared" si="2"/>
         <v>1797.7546786349881</v>
       </c>
@@ -17244,7 +17263,7 @@
       <c r="M71" s="19"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" ht="13.5" thickBot="1">
+    <row r="72" spans="1:14" ht="14" thickBot="1">
       <c r="A72" s="41">
         <v>46</v>
       </c>
@@ -17266,7 +17285,7 @@
       <c r="G72" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H72" s="73">
+      <c r="H72" s="72">
         <f t="shared" si="2"/>
         <v>1838.5900122403286</v>
       </c>
@@ -17280,7 +17299,7 @@
       <c r="M72" s="19"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" ht="13.5" thickBot="1">
+    <row r="73" spans="1:14" ht="14" thickBot="1">
       <c r="A73" s="41">
         <v>47</v>
       </c>
@@ -17302,7 +17321,7 @@
       <c r="G73" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H73" s="73">
+      <c r="H73" s="72">
         <f t="shared" si="2"/>
         <v>1879.4253458456692</v>
       </c>
@@ -17316,7 +17335,7 @@
       <c r="M73" s="19"/>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" ht="13.5" thickBot="1">
+    <row r="74" spans="1:14" ht="14" thickBot="1">
       <c r="A74" s="41">
         <v>48</v>
       </c>
@@ -17338,7 +17357,7 @@
       <c r="G74" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H74" s="73">
+      <c r="H74" s="72">
         <f t="shared" si="2"/>
         <v>1920.2606794510098</v>
       </c>
@@ -17352,7 +17371,7 @@
       <c r="M74" s="19"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" ht="13.5" thickBot="1">
+    <row r="75" spans="1:14" ht="14" thickBot="1">
       <c r="A75" s="41">
         <v>49</v>
       </c>
@@ -17374,7 +17393,7 @@
       <c r="G75" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H75" s="73">
+      <c r="H75" s="72">
         <f t="shared" si="2"/>
         <v>1961.0960130563503</v>
       </c>
@@ -17388,7 +17407,7 @@
       <c r="M75" s="19"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" ht="13.5" thickBot="1">
+    <row r="76" spans="1:14" ht="14" thickBot="1">
       <c r="A76" s="41">
         <v>50</v>
       </c>
@@ -17410,7 +17429,7 @@
       <c r="G76" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H76" s="81">
+      <c r="H76" s="80">
         <f>sheet1!I5</f>
         <v>2001.9313466616909</v>
       </c>
@@ -17424,7 +17443,7 @@
       <c r="M76" s="19"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14" ht="13.5" thickBot="1">
+    <row r="77" spans="1:14" ht="14" thickBot="1">
       <c r="A77" s="41">
         <v>51</v>
       </c>
@@ -17446,7 +17465,7 @@
       <c r="G77" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H77" s="73">
+      <c r="H77" s="72">
         <f t="shared" ref="H77:H126" si="4">H76+$H$25</f>
         <v>2042.7666802670315</v>
       </c>
@@ -17460,7 +17479,7 @@
       <c r="M77" s="19"/>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="1:14" ht="13.5" thickBot="1">
+    <row r="78" spans="1:14" ht="14" thickBot="1">
       <c r="A78" s="41">
         <v>52</v>
       </c>
@@ -17482,7 +17501,7 @@
       <c r="G78" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H78" s="73">
+      <c r="H78" s="72">
         <f t="shared" si="4"/>
         <v>2083.602013872372</v>
       </c>
@@ -17496,7 +17515,7 @@
       <c r="M78" s="19"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" ht="13.5" thickBot="1">
+    <row r="79" spans="1:14" ht="14" thickBot="1">
       <c r="A79" s="41">
         <v>53</v>
       </c>
@@ -17518,7 +17537,7 @@
       <c r="G79" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H79" s="73">
+      <c r="H79" s="72">
         <f t="shared" si="4"/>
         <v>2124.4373474777126</v>
       </c>
@@ -17532,7 +17551,7 @@
       <c r="M79" s="19"/>
       <c r="N79" s="8"/>
     </row>
-    <row r="80" spans="1:14" ht="13.5" thickBot="1">
+    <row r="80" spans="1:14" ht="14" thickBot="1">
       <c r="A80" s="41">
         <v>54</v>
       </c>
@@ -17554,7 +17573,7 @@
       <c r="G80" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H80" s="73">
+      <c r="H80" s="72">
         <f t="shared" si="4"/>
         <v>2165.2726810830532</v>
       </c>
@@ -17568,7 +17587,7 @@
       <c r="M80" s="19"/>
       <c r="N80" s="8"/>
     </row>
-    <row r="81" spans="1:14" ht="13.5" thickBot="1">
+    <row r="81" spans="1:14" ht="14" thickBot="1">
       <c r="A81" s="41">
         <v>55</v>
       </c>
@@ -17590,7 +17609,7 @@
       <c r="G81" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H81" s="73">
+      <c r="H81" s="72">
         <f t="shared" si="4"/>
         <v>2206.1080146883937</v>
       </c>
@@ -17604,7 +17623,7 @@
       <c r="M81" s="19"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="1:14" ht="13.5" thickBot="1">
+    <row r="82" spans="1:14" ht="14" thickBot="1">
       <c r="A82" s="41">
         <v>56</v>
       </c>
@@ -17626,7 +17645,7 @@
       <c r="G82" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H82" s="73">
+      <c r="H82" s="72">
         <f t="shared" si="4"/>
         <v>2246.9433482937343</v>
       </c>
@@ -17640,7 +17659,7 @@
       <c r="M82" s="19"/>
       <c r="N82" s="8"/>
     </row>
-    <row r="83" spans="1:14" ht="13.5" thickBot="1">
+    <row r="83" spans="1:14" ht="14" thickBot="1">
       <c r="A83" s="41">
         <v>57</v>
       </c>
@@ -17662,7 +17681,7 @@
       <c r="G83" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H83" s="73">
+      <c r="H83" s="72">
         <f t="shared" si="4"/>
         <v>2287.7786818990749</v>
       </c>
@@ -17676,7 +17695,7 @@
       <c r="M83" s="19"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="1:14" ht="13.5" thickBot="1">
+    <row r="84" spans="1:14" ht="14" thickBot="1">
       <c r="A84" s="41">
         <v>58</v>
       </c>
@@ -17698,7 +17717,7 @@
       <c r="G84" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H84" s="73">
+      <c r="H84" s="72">
         <f t="shared" si="4"/>
         <v>2328.6140155044154</v>
       </c>
@@ -17712,7 +17731,7 @@
       <c r="M84" s="19"/>
       <c r="N84" s="8"/>
     </row>
-    <row r="85" spans="1:14" ht="13.5" thickBot="1">
+    <row r="85" spans="1:14" ht="14" thickBot="1">
       <c r="A85" s="41">
         <v>59</v>
       </c>
@@ -17734,7 +17753,7 @@
       <c r="G85" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H85" s="73">
+      <c r="H85" s="72">
         <f t="shared" si="4"/>
         <v>2369.449349109756</v>
       </c>
@@ -17748,7 +17767,7 @@
       <c r="M85" s="19"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:14" ht="13.5" thickBot="1">
+    <row r="86" spans="1:14" ht="14" thickBot="1">
       <c r="A86" s="41">
         <v>60</v>
       </c>
@@ -17762,7 +17781,7 @@
         <v>201196385179590.03</v>
       </c>
       <c r="E86" s="43">
-        <v>262220506487045.63</v>
+        <v>262220506487045.62</v>
       </c>
       <c r="F86" s="43">
         <v>42</v>
@@ -17770,7 +17789,7 @@
       <c r="G86" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H86" s="73">
+      <c r="H86" s="72">
         <f t="shared" si="4"/>
         <v>2410.2846827150966</v>
       </c>
@@ -17784,7 +17803,7 @@
       <c r="M86" s="19"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:14" ht="13.5" thickBot="1">
+    <row r="87" spans="1:14" ht="14" thickBot="1">
       <c r="A87" s="41">
         <v>61</v>
       </c>
@@ -17806,7 +17825,7 @@
       <c r="G87" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H87" s="73">
+      <c r="H87" s="72">
         <f t="shared" si="4"/>
         <v>2451.1200163204371</v>
       </c>
@@ -17820,7 +17839,7 @@
       <c r="M87" s="19"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:14" ht="13.5" thickBot="1">
+    <row r="88" spans="1:14" ht="14" thickBot="1">
       <c r="A88" s="41">
         <v>62</v>
       </c>
@@ -17842,7 +17861,7 @@
       <c r="G88" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H88" s="73">
+      <c r="H88" s="72">
         <f t="shared" si="4"/>
         <v>2491.9553499257777</v>
       </c>
@@ -17856,7 +17875,7 @@
       <c r="M88" s="19"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="1:14" ht="13.5" thickBot="1">
+    <row r="89" spans="1:14" ht="14" thickBot="1">
       <c r="A89" s="41">
         <v>63</v>
       </c>
@@ -17878,7 +17897,7 @@
       <c r="G89" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H89" s="73">
+      <c r="H89" s="72">
         <f t="shared" si="4"/>
         <v>2532.7906835311182</v>
       </c>
@@ -17892,7 +17911,7 @@
       <c r="M89" s="19"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="1:14" ht="13.5" thickBot="1">
+    <row r="90" spans="1:14" ht="14" thickBot="1">
       <c r="A90" s="41">
         <v>64</v>
       </c>
@@ -17914,7 +17933,7 @@
       <c r="G90" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H90" s="73">
+      <c r="H90" s="72">
         <f t="shared" si="4"/>
         <v>2573.6260171364588</v>
       </c>
@@ -17928,7 +17947,7 @@
       <c r="M90" s="19"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="1:14" ht="13.5" thickBot="1">
+    <row r="91" spans="1:14" ht="14" thickBot="1">
       <c r="A91" s="41">
         <v>65</v>
       </c>
@@ -17950,7 +17969,7 @@
       <c r="G91" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H91" s="73">
+      <c r="H91" s="72">
         <f t="shared" si="4"/>
         <v>2614.4613507417994</v>
       </c>
@@ -17964,7 +17983,7 @@
       <c r="M91" s="19"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="1:14" ht="13.5" thickBot="1">
+    <row r="92" spans="1:14" ht="14" thickBot="1">
       <c r="A92" s="41">
         <v>66</v>
       </c>
@@ -17986,7 +18005,7 @@
       <c r="G92" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H92" s="73">
+      <c r="H92" s="72">
         <f t="shared" si="4"/>
         <v>2655.2966843471399</v>
       </c>
@@ -18000,7 +18019,7 @@
       <c r="M92" s="19"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="1:14" ht="13.5" thickBot="1">
+    <row r="93" spans="1:14" ht="14" thickBot="1">
       <c r="A93" s="41">
         <v>67</v>
       </c>
@@ -18022,7 +18041,7 @@
       <c r="G93" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H93" s="73">
+      <c r="H93" s="72">
         <f t="shared" si="4"/>
         <v>2696.1320179524805</v>
       </c>
@@ -18036,7 +18055,7 @@
       <c r="M93" s="19"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="1:14" ht="13.5" thickBot="1">
+    <row r="94" spans="1:14" ht="14" thickBot="1">
       <c r="A94" s="41">
         <v>68</v>
       </c>
@@ -18058,7 +18077,7 @@
       <c r="G94" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H94" s="73">
+      <c r="H94" s="72">
         <f t="shared" si="4"/>
         <v>2736.9673515578211</v>
       </c>
@@ -18072,7 +18091,7 @@
       <c r="M94" s="19"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="1:14" ht="13.5" thickBot="1">
+    <row r="95" spans="1:14" ht="14" thickBot="1">
       <c r="A95" s="41">
         <v>69</v>
       </c>
@@ -18094,7 +18113,7 @@
       <c r="G95" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H95" s="73">
+      <c r="H95" s="72">
         <f t="shared" si="4"/>
         <v>2777.8026851631616</v>
       </c>
@@ -18108,7 +18127,7 @@
       <c r="M95" s="19"/>
       <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="1:14" ht="13.5" thickBot="1">
+    <row r="96" spans="1:14" ht="14" thickBot="1">
       <c r="A96" s="41">
         <v>70</v>
       </c>
@@ -18130,7 +18149,7 @@
       <c r="G96" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H96" s="73">
+      <c r="H96" s="72">
         <f t="shared" si="4"/>
         <v>2818.6380187685022</v>
       </c>
@@ -18144,7 +18163,7 @@
       <c r="M96" s="19"/>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="1:14" ht="13.5" thickBot="1">
+    <row r="97" spans="1:14" ht="14" thickBot="1">
       <c r="A97" s="41">
         <v>71</v>
       </c>
@@ -18166,7 +18185,7 @@
       <c r="G97" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H97" s="73">
+      <c r="H97" s="72">
         <f t="shared" si="4"/>
         <v>2859.4733523738428</v>
       </c>
@@ -18180,7 +18199,7 @@
       <c r="M97" s="19"/>
       <c r="N97" s="8"/>
     </row>
-    <row r="98" spans="1:14" ht="13.5" thickBot="1">
+    <row r="98" spans="1:14" ht="14" thickBot="1">
       <c r="A98" s="41">
         <v>72</v>
       </c>
@@ -18202,7 +18221,7 @@
       <c r="G98" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H98" s="73">
+      <c r="H98" s="72">
         <f t="shared" si="4"/>
         <v>2900.3086859791833</v>
       </c>
@@ -18216,7 +18235,7 @@
       <c r="M98" s="19"/>
       <c r="N98" s="8"/>
     </row>
-    <row r="99" spans="1:14" ht="13.5" thickBot="1">
+    <row r="99" spans="1:14" ht="14" thickBot="1">
       <c r="A99" s="41">
         <v>73</v>
       </c>
@@ -18238,7 +18257,7 @@
       <c r="G99" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H99" s="73">
+      <c r="H99" s="72">
         <f t="shared" si="4"/>
         <v>2941.1440195845239</v>
       </c>
@@ -18252,7 +18271,7 @@
       <c r="M99" s="19"/>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="1:14" ht="13.5" thickBot="1">
+    <row r="100" spans="1:14" ht="14" thickBot="1">
       <c r="A100" s="41">
         <v>74</v>
       </c>
@@ -18274,7 +18293,7 @@
       <c r="G100" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H100" s="73">
+      <c r="H100" s="72">
         <f t="shared" si="4"/>
         <v>2981.9793531898645</v>
       </c>
@@ -18288,7 +18307,7 @@
       <c r="M100" s="19"/>
       <c r="N100" s="8"/>
     </row>
-    <row r="101" spans="1:14" ht="13.5" thickBot="1">
+    <row r="101" spans="1:14" ht="14" thickBot="1">
       <c r="A101" s="41">
         <v>75</v>
       </c>
@@ -18310,7 +18329,7 @@
       <c r="G101" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H101" s="73">
+      <c r="H101" s="72">
         <f t="shared" si="4"/>
         <v>3022.814686795205</v>
       </c>
@@ -18324,7 +18343,7 @@
       <c r="M101" s="19"/>
       <c r="N101" s="8"/>
     </row>
-    <row r="102" spans="1:14" ht="13.5" thickBot="1">
+    <row r="102" spans="1:14" ht="14" thickBot="1">
       <c r="A102" s="41">
         <v>76</v>
       </c>
@@ -18346,7 +18365,7 @@
       <c r="G102" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H102" s="73">
+      <c r="H102" s="72">
         <f t="shared" si="4"/>
         <v>3063.6500204005456</v>
       </c>
@@ -18360,7 +18379,7 @@
       <c r="M102" s="19"/>
       <c r="N102" s="8"/>
     </row>
-    <row r="103" spans="1:14" ht="13.5" thickBot="1">
+    <row r="103" spans="1:14" ht="14" thickBot="1">
       <c r="A103" s="41">
         <v>77</v>
       </c>
@@ -18382,7 +18401,7 @@
       <c r="G103" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H103" s="73">
+      <c r="H103" s="72">
         <f t="shared" si="4"/>
         <v>3104.4853540058862</v>
       </c>
@@ -18396,7 +18415,7 @@
       <c r="M103" s="19"/>
       <c r="N103" s="8"/>
     </row>
-    <row r="104" spans="1:14" ht="13.5" thickBot="1">
+    <row r="104" spans="1:14" ht="14" thickBot="1">
       <c r="A104" s="41">
         <v>78</v>
       </c>
@@ -18418,7 +18437,7 @@
       <c r="G104" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H104" s="73">
+      <c r="H104" s="72">
         <f t="shared" si="4"/>
         <v>3145.3206876112267</v>
       </c>
@@ -18432,7 +18451,7 @@
       <c r="M104" s="19"/>
       <c r="N104" s="8"/>
     </row>
-    <row r="105" spans="1:14" ht="13.5" thickBot="1">
+    <row r="105" spans="1:14" ht="14" thickBot="1">
       <c r="A105" s="41">
         <v>79</v>
       </c>
@@ -18454,7 +18473,7 @@
       <c r="G105" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H105" s="73">
+      <c r="H105" s="72">
         <f t="shared" si="4"/>
         <v>3186.1560212165673</v>
       </c>
@@ -18468,7 +18487,7 @@
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
     </row>
-    <row r="106" spans="1:14" ht="13.5" thickBot="1">
+    <row r="106" spans="1:14" ht="14" thickBot="1">
       <c r="A106" s="41">
         <v>80</v>
       </c>
@@ -18490,7 +18509,7 @@
       <c r="G106" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H106" s="73">
+      <c r="H106" s="72">
         <f t="shared" si="4"/>
         <v>3226.9913548219079</v>
       </c>
@@ -18504,7 +18523,7 @@
       <c r="M106" s="8"/>
       <c r="N106" s="8"/>
     </row>
-    <row r="107" spans="1:14" ht="13.5" thickBot="1">
+    <row r="107" spans="1:14" ht="14" thickBot="1">
       <c r="A107" s="41">
         <v>81</v>
       </c>
@@ -18526,7 +18545,7 @@
       <c r="G107" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H107" s="73">
+      <c r="H107" s="72">
         <f t="shared" si="4"/>
         <v>3267.8266884272484</v>
       </c>
@@ -18540,7 +18559,7 @@
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
     </row>
-    <row r="108" spans="1:14" ht="13.5" thickBot="1">
+    <row r="108" spans="1:14" ht="14" thickBot="1">
       <c r="A108" s="41">
         <v>82</v>
       </c>
@@ -18562,7 +18581,7 @@
       <c r="G108" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H108" s="73">
+      <c r="H108" s="72">
         <f t="shared" si="4"/>
         <v>3308.662022032589</v>
       </c>
@@ -18576,7 +18595,7 @@
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
     </row>
-    <row r="109" spans="1:14" ht="13.5" thickBot="1">
+    <row r="109" spans="1:14" ht="14" thickBot="1">
       <c r="A109" s="41">
         <v>83</v>
       </c>
@@ -18598,7 +18617,7 @@
       <c r="G109" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H109" s="73">
+      <c r="H109" s="72">
         <f t="shared" si="4"/>
         <v>3349.4973556379296</v>
       </c>
@@ -18612,7 +18631,7 @@
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
     </row>
-    <row r="110" spans="1:14" ht="13.5" thickBot="1">
+    <row r="110" spans="1:14" ht="14" thickBot="1">
       <c r="A110" s="41">
         <v>84</v>
       </c>
@@ -18634,7 +18653,7 @@
       <c r="G110" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H110" s="73">
+      <c r="H110" s="72">
         <f t="shared" si="4"/>
         <v>3390.3326892432701</v>
       </c>
@@ -18648,7 +18667,7 @@
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
     </row>
-    <row r="111" spans="1:14" ht="13.5" thickBot="1">
+    <row r="111" spans="1:14" ht="14" thickBot="1">
       <c r="A111" s="41">
         <v>85</v>
       </c>
@@ -18670,7 +18689,7 @@
       <c r="G111" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H111" s="73">
+      <c r="H111" s="72">
         <f t="shared" si="4"/>
         <v>3431.1680228486107</v>
       </c>
@@ -18684,7 +18703,7 @@
       <c r="M111" s="8"/>
       <c r="N111" s="8"/>
     </row>
-    <row r="112" spans="1:14" ht="13.5" thickBot="1">
+    <row r="112" spans="1:14" ht="14" thickBot="1">
       <c r="A112" s="41">
         <v>86</v>
       </c>
@@ -18706,7 +18725,7 @@
       <c r="G112" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H112" s="73">
+      <c r="H112" s="72">
         <f t="shared" si="4"/>
         <v>3472.0033564539513</v>
       </c>
@@ -18720,7 +18739,7 @@
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
     </row>
-    <row r="113" spans="1:14" ht="13.5" thickBot="1">
+    <row r="113" spans="1:14" ht="14" thickBot="1">
       <c r="A113" s="41">
         <v>87</v>
       </c>
@@ -18742,7 +18761,7 @@
       <c r="G113" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H113" s="73">
+      <c r="H113" s="72">
         <f t="shared" si="4"/>
         <v>3512.8386900592918</v>
       </c>
@@ -18756,7 +18775,7 @@
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
     </row>
-    <row r="114" spans="1:14" ht="13.5" thickBot="1">
+    <row r="114" spans="1:14" ht="14" thickBot="1">
       <c r="A114" s="41">
         <v>88</v>
       </c>
@@ -18778,7 +18797,7 @@
       <c r="G114" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H114" s="73">
+      <c r="H114" s="72">
         <f t="shared" si="4"/>
         <v>3553.6740236646324</v>
       </c>
@@ -18792,7 +18811,7 @@
       <c r="M114" s="8"/>
       <c r="N114" s="8"/>
     </row>
-    <row r="115" spans="1:14" ht="13.5" thickBot="1">
+    <row r="115" spans="1:14" ht="14" thickBot="1">
       <c r="A115" s="41">
         <v>89</v>
       </c>
@@ -18814,7 +18833,7 @@
       <c r="G115" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H115" s="73">
+      <c r="H115" s="72">
         <f t="shared" si="4"/>
         <v>3594.509357269973</v>
       </c>
@@ -18828,7 +18847,7 @@
       <c r="M115" s="8"/>
       <c r="N115" s="8"/>
     </row>
-    <row r="116" spans="1:14" ht="13.5" thickBot="1">
+    <row r="116" spans="1:14" ht="14" thickBot="1">
       <c r="A116" s="41">
         <v>90</v>
       </c>
@@ -18850,7 +18869,7 @@
       <c r="G116" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H116" s="73">
+      <c r="H116" s="72">
         <f t="shared" si="4"/>
         <v>3635.3446908753135</v>
       </c>
@@ -18864,7 +18883,7 @@
       <c r="M116" s="8"/>
       <c r="N116" s="8"/>
     </row>
-    <row r="117" spans="1:14" ht="13.5" thickBot="1">
+    <row r="117" spans="1:14" ht="14" thickBot="1">
       <c r="A117" s="41">
         <v>91</v>
       </c>
@@ -18886,7 +18905,7 @@
       <c r="G117" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H117" s="73">
+      <c r="H117" s="72">
         <f t="shared" si="4"/>
         <v>3676.1800244806541</v>
       </c>
@@ -18900,7 +18919,7 @@
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
     </row>
-    <row r="118" spans="1:14" ht="13.5" thickBot="1">
+    <row r="118" spans="1:14" ht="14" thickBot="1">
       <c r="A118" s="41">
         <v>92</v>
       </c>
@@ -18922,7 +18941,7 @@
       <c r="G118" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H118" s="73">
+      <c r="H118" s="72">
         <f t="shared" si="4"/>
         <v>3717.0153580859946</v>
       </c>
@@ -18936,7 +18955,7 @@
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
     </row>
-    <row r="119" spans="1:14" ht="13.5" thickBot="1">
+    <row r="119" spans="1:14" ht="14" thickBot="1">
       <c r="A119" s="41">
         <v>93</v>
       </c>
@@ -18958,7 +18977,7 @@
       <c r="G119" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H119" s="73">
+      <c r="H119" s="72">
         <f t="shared" si="4"/>
         <v>3757.8506916913352</v>
       </c>
@@ -18972,7 +18991,7 @@
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
     </row>
-    <row r="120" spans="1:14" ht="13.5" thickBot="1">
+    <row r="120" spans="1:14" ht="14" thickBot="1">
       <c r="A120" s="41">
         <v>94</v>
       </c>
@@ -18994,7 +19013,7 @@
       <c r="G120" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H120" s="73">
+      <c r="H120" s="72">
         <f t="shared" si="4"/>
         <v>3798.6860252966758</v>
       </c>
@@ -19008,7 +19027,7 @@
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
     </row>
-    <row r="121" spans="1:14" ht="13.5" thickBot="1">
+    <row r="121" spans="1:14" ht="14" thickBot="1">
       <c r="A121" s="41">
         <v>95</v>
       </c>
@@ -19030,7 +19049,7 @@
       <c r="G121" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H121" s="73">
+      <c r="H121" s="72">
         <f t="shared" si="4"/>
         <v>3839.5213589020163</v>
       </c>
@@ -19044,7 +19063,7 @@
       <c r="M121" s="8"/>
       <c r="N121" s="8"/>
     </row>
-    <row r="122" spans="1:14" ht="13.5" thickBot="1">
+    <row r="122" spans="1:14" ht="14" thickBot="1">
       <c r="A122" s="41">
         <v>96</v>
       </c>
@@ -19066,7 +19085,7 @@
       <c r="G122" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H122" s="73">
+      <c r="H122" s="72">
         <f t="shared" si="4"/>
         <v>3880.3566925073569</v>
       </c>
@@ -19080,7 +19099,7 @@
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
     </row>
-    <row r="123" spans="1:14" ht="13.5" thickBot="1">
+    <row r="123" spans="1:14" ht="14" thickBot="1">
       <c r="A123" s="41">
         <v>97</v>
       </c>
@@ -19102,7 +19121,7 @@
       <c r="G123" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H123" s="73">
+      <c r="H123" s="72">
         <f t="shared" si="4"/>
         <v>3921.1920261126975</v>
       </c>
@@ -19116,7 +19135,7 @@
       <c r="M123" s="8"/>
       <c r="N123" s="8"/>
     </row>
-    <row r="124" spans="1:14" ht="13.5" thickBot="1">
+    <row r="124" spans="1:14" ht="14" thickBot="1">
       <c r="A124" s="41">
         <v>98</v>
       </c>
@@ -19138,7 +19157,7 @@
       <c r="G124" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H124" s="73">
+      <c r="H124" s="72">
         <f t="shared" si="4"/>
         <v>3962.027359718038</v>
       </c>
@@ -19152,7 +19171,7 @@
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
     </row>
-    <row r="125" spans="1:14" ht="13.5" thickBot="1">
+    <row r="125" spans="1:14" ht="14" thickBot="1">
       <c r="A125" s="41">
         <v>99</v>
       </c>
@@ -19174,7 +19193,7 @@
       <c r="G125" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H125" s="73">
+      <c r="H125" s="72">
         <f t="shared" si="4"/>
         <v>4002.8626933233786</v>
       </c>
@@ -19183,7 +19202,7 @@
         <v>2000.9313466616877</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="13.5" thickBot="1">
+    <row r="126" spans="1:14" ht="14" thickBot="1">
       <c r="A126" s="45">
         <v>100</v>
       </c>
@@ -19205,7 +19224,7 @@
       <c r="G126" s="59">
         <v>9.9999999999999994E-12</v>
       </c>
-      <c r="H126" s="74">
+      <c r="H126" s="73">
         <f t="shared" si="4"/>
         <v>4043.6980269287192</v>
       </c>
